--- a/Socio_CE.xlsx
+++ b/Socio_CE.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
   <si>
     <t xml:space="preserve">municipio</t>
   </si>
@@ -593,45 +593,6 @@
   </si>
   <si>
     <t xml:space="preserve">Viçosa do Ceará</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notas:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escolarização 6 a 14 anos : [população residente no município de 6 a 14 anos de idade matriculada no ensino regular/total de população residente no município de 6 a 14 anos de idade] x 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">População estimada: Para 'dúvidas e contestações' acesse https://www.ibge.gov.br/estatisticas/sociais/populacao/9103-estimativas-de-populacao.html?=&amp;t=o-que-e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fontes:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Área Territorial: Área territorial brasileira 2020. Rio de Janeiro: IBGE, 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">População estimada: IBGE, Diretoria de Pesquisas, Coordenação de População e Indicadores Sociais, Estimativas da população residente com data de referência 1o de julho de 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Densidade demográfica: IBGE, Censo Demográfico 2010, Área territorial brasileira. Rio de Janeiro: IBGE, 2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escolarização 6 a 14 anos : IBGE, Censo Demográfico 2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDHM Índice de desenvolvimento humano municipal : Programa das Nações Unidas para o Desenvolvimento - PNUD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mortalidade infantil: Ministério da Saúde, Departamento de Informática do Sistema Único de Saúde - DATASUS 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Receitas realizadas: Contas anuais. Receitas orçamentárias realizadas (Anexo I-C) 2017 e Despesas orçamentárias empenhadas (Anexo I-D) 2017. In: Brasil. Secretaria do Tesouro Nacional, Siconfi: Sistema de Informações Contábeis e Fiscais do Setor Público Brasileiro. Brasília, DF, [2018]. Disponível em: https://siconfi.tesouro.gov.br/siconfi/pages/public/consulta_finbra/finbra_list.jsf. Acesso em: set. 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Despesas empenhadas: Contas anuais. Receitas orçamentárias realizadas (Anexo I-C) 2017 e Despesas orçamentárias empenhadas (Anexo I-D) 2017. In: Brasil. Secretaria do Tesouro Nacional, Siconfi: Sistema de Informações Contábeis e Fiscais do Setor Público Brasileiro. Brasília, DF, [2018]. Disponível em: https://siconfi.tesouro.gov.br/siconfi/pages/public/consulta_finbra/finbra_list.jsf. Acesso em: set. 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIB per capita: IBGE, em parceria com os Órgãos Estaduais de Estatística, Secretarias Estaduais de Governo e Superintendência da Zona Franca de Manaus - SUFRAMA</t>
   </si>
 </sst>
 </file>
@@ -707,9 +668,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -729,4343 +694,4278 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G200"/>
+  <dimension ref="A1:G185"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
+      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="25.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16379" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="13.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="25.54"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16378" min="9" style="1" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16379" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>11965</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>58.69</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>0.628</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>29043.96353</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>26827.90366</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <v>8051.85</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>15140</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>98.52</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>0.606</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>38762.5354</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>36800.46805</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <v>9544.34</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>63556</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>68.31</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>0.601</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>132656.38793</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>109899.29715</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="1" t="n">
         <v>11329.55</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>54687</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>22.58</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>0.595</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>153148.70946</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <v>125356.16693</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="1" t="n">
         <v>8527.43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>17584</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>6.66</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>0.569</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <v>37794.63071</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <v>33776.93227</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="1" t="n">
         <v>7438.27</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>11846</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>77.71</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>28047.7779</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <v>28990.81921</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="1" t="n">
         <v>6976.04</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>7712</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>93.54</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>0.602</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>31688.0261</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="1" t="n">
         <v>24034.7098</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="1" t="n">
         <v>7703.87</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>16077</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>12.22</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>0.601</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <v>40704.75209</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="1" t="n">
         <v>35934.2694</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="1" t="n">
         <v>10677.98</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>44195</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>33.27</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>0.606</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <v>104596.02325</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="1" t="n">
         <v>100940.29595</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="1" t="n">
         <v>11911.02</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>7402</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>26.85</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>0.599</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <v>21091.60042</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="1" t="n">
         <v>19508.59033</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="1" t="n">
         <v>8761.76</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>14742</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>25.54</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>0.618</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="1" t="n">
         <v>43151.1677</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="1" t="n">
         <v>36822.04468</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12" s="1" t="n">
         <v>7802.14</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>81581</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>150.5</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>0.641</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="1" t="n">
         <v>244006.6155</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="1" t="n">
         <v>197501.39598</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="1" t="n">
         <v>32792.37</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <v>75392</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <v>56.32</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="1" t="n">
         <v>0.655</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="1" t="n">
         <v>227561.34007</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="1" t="n">
         <v>185621.26216</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14" s="1" t="n">
         <v>18818.74</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>26600</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <v>38.67</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <v>0.615</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="1" t="n">
         <v>66969.90402</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="1" t="n">
         <v>70353.85927</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15" s="1" t="n">
         <v>8688.06</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>10983</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <v>30.49</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <v>0.59</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="1" t="n">
         <v>30233.21546</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="1" t="n">
         <v>28244.06253</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16" s="1" t="n">
         <v>7749.56</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="1" t="n">
         <v>21707</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <v>18.81</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="1" t="n">
         <v>0.564</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="1" t="n">
         <v>69217.32083</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17" s="1" t="n">
         <v>59671.85451</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17" s="1" t="n">
         <v>7875.07</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="1" t="n">
         <v>11759</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="1" t="n">
         <v>100.44</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="1" t="n">
         <v>0.622</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="1" t="n">
         <v>49123.73328</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18" s="1" t="n">
         <v>31633.95958</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18" s="1" t="n">
         <v>10593.58</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="1" t="n">
         <v>7848</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="1" t="n">
         <v>7.17</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <v>0.618</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="1" t="n">
         <v>11.50649</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19" s="1" t="n">
         <v>20466.42208</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19" s="1" t="n">
         <v>7500.79</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="1" t="n">
         <v>23537</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="1" t="n">
         <v>20.11</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20" s="1" t="n">
         <v>52234.57079</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20" s="1" t="n">
         <v>42903.24791</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="G20" s="1" t="n">
         <v>8396.48</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="1" t="n">
         <v>24567</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="1" t="n">
         <v>27.73</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="1" t="n">
         <v>0.605</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21" s="1" t="n">
         <v>52517.28398</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21" s="1" t="n">
         <v>46765.06558</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="G21" s="1" t="n">
         <v>8503.8</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="1" t="n">
         <v>6318</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="1" t="n">
         <v>41.15</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="1" t="n">
         <v>0.627</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22" s="1" t="n">
         <v>23630.68618</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22" s="1" t="n">
         <v>21367.08949</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="G22" s="1" t="n">
         <v>8816.46</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="1" t="n">
         <v>18313</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="1" t="n">
         <v>16.03</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="1" t="n">
         <v>0.606</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23" s="1" t="n">
         <v>46068.89785</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23" s="1" t="n">
         <v>42192.55666</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="G23" s="1" t="n">
         <v>10088.09</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="1" t="n">
         <v>61662</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="1" t="n">
         <v>97.14</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" s="1" t="n">
         <v>0.683</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24" s="1" t="n">
         <v>243774.85895</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24" s="1" t="n">
         <v>227251.72162</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="G24" s="1" t="n">
         <v>17347.6</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="1" t="n">
         <v>22715</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" s="1" t="n">
         <v>79.63</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="1" t="n">
         <v>0.616</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25" s="1" t="n">
         <v>49562.61395</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F25" s="1" t="n">
         <v>44585.4676</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="G25" s="1" t="n">
         <v>8177.63</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="1" t="n">
         <v>22834</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="1" t="n">
         <v>30.22</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26" s="1" t="n">
         <v>0.599</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26" s="1" t="n">
         <v>41340.96125</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26" s="1" t="n">
         <v>39319.66277</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="G26" s="1" t="n">
         <v>8574.48</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="1" t="n">
         <v>15069</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27" s="1" t="n">
         <v>37.76</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27" s="1" t="n">
         <v>0.571</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27" s="1" t="n">
         <v>39700.27383</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27" s="1" t="n">
         <v>35936.40334</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="G27" s="1" t="n">
         <v>7352.07</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="1" t="n">
         <v>36127</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28" s="1" t="n">
         <v>107.98</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28" s="1" t="n">
         <v>0.619</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28" s="1" t="n">
         <v>74220.66741</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28" s="1" t="n">
         <v>67628.88549</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="G28" s="1" t="n">
         <v>10928.65</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" s="1" t="n">
         <v>54315</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29" s="1" t="n">
         <v>30.37</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29" s="1" t="n">
         <v>0.638</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29" s="1" t="n">
         <v>119759.00352</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29" s="1" t="n">
         <v>114373.58263</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="G29" s="1" t="n">
         <v>16294.11</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30" s="1" t="n">
         <v>32851</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30" s="1" t="n">
         <v>36.63</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30" s="1" t="n">
         <v>0.623</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30" s="1" t="n">
         <v>54874.52308</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30" s="1" t="n">
         <v>54813.93035</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="G30" s="1" t="n">
         <v>8229.31</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="1" t="n">
         <v>54680</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31" s="1" t="n">
         <v>18.51</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31" s="1" t="n">
         <v>0.598</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31" s="1" t="n">
         <v>103721.3768</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31" s="1" t="n">
         <v>98299.87318</v>
       </c>
-      <c r="G31" s="0" t="n">
+      <c r="G31" s="1" t="n">
         <v>8623.92</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32" s="1" t="n">
         <v>50195</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32" s="1" t="n">
         <v>68.12</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32" s="1" t="n">
         <v>0.647</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32" s="1" t="n">
         <v>170601.2427</v>
       </c>
-      <c r="F32" s="0" t="n">
+      <c r="F32" s="1" t="n">
         <v>147722.76868</v>
       </c>
-      <c r="G32" s="0" t="n">
+      <c r="G32" s="1" t="n">
         <v>13660.13</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33" s="1" t="n">
         <v>64147</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33" s="1" t="n">
         <v>53.48</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33" s="1" t="n">
         <v>0.62</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33" s="1" t="n">
         <v>184054.11674</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="F33" s="1" t="n">
         <v>163720.78207</v>
       </c>
-      <c r="G33" s="0" t="n">
+      <c r="G33" s="1" t="n">
         <v>11306.83</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34" s="1" t="n">
         <v>27513</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34" s="1" t="n">
         <v>24.48</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34" s="1" t="n">
         <v>0.63</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34" s="1" t="n">
         <v>72422.3074</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="F34" s="1" t="n">
         <v>64018.70805</v>
       </c>
-      <c r="G34" s="0" t="n">
+      <c r="G34" s="1" t="n">
         <v>9754.59</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35" s="1" t="n">
         <v>77484</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35" s="1" t="n">
         <v>23.14</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35" s="1" t="n">
         <v>0.612</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35" s="1" t="n">
         <v>208998.68705</v>
       </c>
-      <c r="F35" s="0" t="n">
+      <c r="F35" s="1" t="n">
         <v>198932.36748</v>
       </c>
-      <c r="G35" s="0" t="n">
+      <c r="G35" s="1" t="n">
         <v>11541.95</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36" s="1" t="n">
         <v>17830</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36" s="1" t="n">
         <v>76.67</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36" s="1" t="n">
         <v>0.611</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36" s="1" t="n">
         <v>44410.43366</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="F36" s="1" t="n">
         <v>47389.11605</v>
       </c>
-      <c r="G36" s="0" t="n">
+      <c r="G36" s="1" t="n">
         <v>8736.09</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37" s="1" t="n">
         <v>23011</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37" s="1" t="n">
         <v>23.65</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37" s="1" t="n">
         <v>0.592</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37" s="1" t="n">
         <v>42361.98869</v>
       </c>
-      <c r="F37" s="0" t="n">
+      <c r="F37" s="1" t="n">
         <v>44059.92572</v>
       </c>
-      <c r="G37" s="0" t="n">
+      <c r="G37" s="1" t="n">
         <v>6854.9</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38" s="1" t="n">
         <v>18470</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38" s="1" t="n">
         <v>24.24</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D38" s="1" t="n">
         <v>0.596</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38" s="1" t="n">
         <v>51159.84298</v>
       </c>
-      <c r="F38" s="0" t="n">
+      <c r="F38" s="1" t="n">
         <v>45628.31527</v>
       </c>
-      <c r="G38" s="0" t="n">
+      <c r="G38" s="1" t="n">
         <v>8861.12</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39" s="1" t="n">
         <v>27008</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39" s="1" t="n">
         <v>42.33</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D39" s="1" t="n">
         <v>0.578</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39" s="1" t="n">
         <v>59523.756</v>
       </c>
-      <c r="F39" s="0" t="n">
+      <c r="F39" s="1" t="n">
         <v>55442.10147</v>
       </c>
-      <c r="G39" s="0" t="n">
+      <c r="G39" s="1" t="n">
         <v>7788.91</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40" s="1" t="n">
         <v>18700</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40" s="1" t="n">
         <v>17.49</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D40" s="1" t="n">
         <v>0.597</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E40" s="1" t="n">
         <v>43117.00843</v>
       </c>
-      <c r="F40" s="0" t="n">
+      <c r="F40" s="1" t="n">
         <v>38533.8984</v>
       </c>
-      <c r="G40" s="0" t="n">
+      <c r="G40" s="1" t="n">
         <v>7731.54</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41" s="1" t="n">
         <v>17763</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41" s="1" t="n">
         <v>45.9</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D41" s="1" t="n">
         <v>0.593</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E41" s="1" t="n">
         <v>44400.99881</v>
       </c>
-      <c r="F41" s="0" t="n">
+      <c r="F41" s="1" t="n">
         <v>39292.32944</v>
       </c>
-      <c r="G41" s="0" t="n">
+      <c r="G41" s="1" t="n">
         <v>7459.82</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42" s="1" t="n">
         <v>72706</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42" s="1" t="n">
         <v>78.99</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="D42" s="1" t="n">
         <v>0.646</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="E42" s="1" t="n">
         <v>157576.13841</v>
       </c>
-      <c r="F42" s="0" t="n">
+      <c r="F42" s="1" t="n">
         <v>146954.71201</v>
       </c>
-      <c r="G42" s="0" t="n">
+      <c r="G42" s="1" t="n">
         <v>12816.78</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43" s="1" t="n">
         <v>21041</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43" s="1" t="n">
         <v>38.5</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43" s="1" t="n">
         <v>0.618</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E43" s="1" t="n">
         <v>48412.85619</v>
       </c>
-      <c r="F43" s="0" t="n">
+      <c r="F43" s="1" t="n">
         <v>40082.53852</v>
       </c>
-      <c r="G43" s="0" t="n">
+      <c r="G43" s="1" t="n">
         <v>5749.66</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44" s="1" t="n">
         <v>10410</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44" s="1" t="n">
         <v>12.59</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D44" s="1" t="n">
         <v>0.609</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44" s="1" t="n">
         <v>30300.18724</v>
       </c>
-      <c r="F44" s="0" t="n">
+      <c r="F44" s="1" t="n">
         <v>29143.06431</v>
       </c>
-      <c r="G44" s="0" t="n">
+      <c r="G44" s="1" t="n">
         <v>10937.84</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45" s="1" t="n">
         <v>368918</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45" s="1" t="n">
         <v>264.91</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="D45" s="1" t="n">
         <v>0.682</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E45" s="1" t="n">
         <v>629854.17239</v>
       </c>
-      <c r="F45" s="0" t="n">
+      <c r="F45" s="1" t="n">
         <v>567292.53099</v>
       </c>
-      <c r="G45" s="0" t="n">
+      <c r="G45" s="1" t="n">
         <v>19147.09</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46" s="1" t="n">
         <v>25612</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46" s="1" t="n">
         <v>33.79</v>
       </c>
-      <c r="D46" s="0" t="n">
+      <c r="D46" s="1" t="n">
         <v>0.627</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="E46" s="1" t="n">
         <v>73911.85398</v>
       </c>
-      <c r="F46" s="0" t="n">
+      <c r="F46" s="1" t="n">
         <v>51532.51825</v>
       </c>
-      <c r="G46" s="0" t="n">
+      <c r="G46" s="1" t="n">
         <v>8048.99</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47" s="1" t="n">
         <v>13112</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47" s="1" t="n">
         <v>52.95</v>
       </c>
-      <c r="D47" s="0" t="n">
+      <c r="D47" s="1" t="n">
         <v>0.586</v>
       </c>
-      <c r="E47" s="0" t="n">
+      <c r="E47" s="1" t="n">
         <v>28808.14599</v>
       </c>
-      <c r="F47" s="0" t="n">
+      <c r="F47" s="1" t="n">
         <v>30309.62554</v>
       </c>
-      <c r="G47" s="0" t="n">
+      <c r="G47" s="1" t="n">
         <v>7312.88</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48" s="1" t="n">
         <v>13608</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48" s="1" t="n">
         <v>15.76</v>
       </c>
-      <c r="D48" s="0" t="n">
+      <c r="D48" s="1" t="n">
         <v>0.585</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="E48" s="1" t="n">
         <v>39483.61716</v>
       </c>
-      <c r="F48" s="0" t="n">
+      <c r="F48" s="1" t="n">
         <v>32665.65548</v>
       </c>
-      <c r="G48" s="0" t="n">
+      <c r="G48" s="1" t="n">
         <v>9214.67</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49" s="1" t="n">
         <v>20286</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49" s="1" t="n">
         <v>67.94</v>
       </c>
-      <c r="D49" s="0" t="n">
+      <c r="D49" s="1" t="n">
         <v>0.604</v>
       </c>
-      <c r="E49" s="0" t="n">
+      <c r="E49" s="1" t="n">
         <v>53830.39622</v>
       </c>
-      <c r="F49" s="0" t="n">
+      <c r="F49" s="1" t="n">
         <v>47230.75267</v>
       </c>
-      <c r="G49" s="0" t="n">
+      <c r="G49" s="1" t="n">
         <v>14198.96</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B50" s="1" t="n">
         <v>23340</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50" s="1" t="n">
         <v>28.3</v>
       </c>
-      <c r="D50" s="0" t="n">
+      <c r="D50" s="1" t="n">
         <v>0.61</v>
       </c>
-      <c r="E50" s="0" t="n">
+      <c r="E50" s="1" t="n">
         <v>51937.11674</v>
       </c>
-      <c r="F50" s="0" t="n">
+      <c r="F50" s="1" t="n">
         <v>47475.59126</v>
       </c>
-      <c r="G50" s="0" t="n">
+      <c r="G50" s="1" t="n">
         <v>7605.58</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51" s="1" t="n">
         <v>75241</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51" s="1" t="n">
         <v>24.39</v>
       </c>
-      <c r="D51" s="0" t="n">
+      <c r="D51" s="1" t="n">
         <v>0.644</v>
       </c>
-      <c r="E51" s="0" t="n">
+      <c r="E51" s="1" t="n">
         <v>140243.49492</v>
       </c>
-      <c r="F51" s="0" t="n">
+      <c r="F51" s="1" t="n">
         <v>139963.52378</v>
       </c>
-      <c r="G51" s="0" t="n">
+      <c r="G51" s="1" t="n">
         <v>11342.87</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52" s="1" t="n">
         <v>133913</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52" s="1" t="n">
         <v>103.21</v>
       </c>
-      <c r="D52" s="0" t="n">
+      <c r="D52" s="1" t="n">
         <v>0.713</v>
       </c>
-      <c r="E52" s="0" t="n">
+      <c r="E52" s="1" t="n">
         <v>263007.65557</v>
       </c>
-      <c r="F52" s="0" t="n">
+      <c r="F52" s="1" t="n">
         <v>226354.59361</v>
       </c>
-      <c r="G52" s="0" t="n">
+      <c r="G52" s="1" t="n">
         <v>13315.64</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53" s="1" t="n">
         <v>18201</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53" s="1" t="n">
         <v>24.49</v>
       </c>
-      <c r="D53" s="0" t="n">
+      <c r="D53" s="1" t="n">
         <v>0.59</v>
       </c>
-      <c r="E53" s="0" t="n">
+      <c r="E53" s="1" t="n">
         <v>44431.21556</v>
       </c>
-      <c r="F53" s="0" t="n">
+      <c r="F53" s="1" t="n">
         <v>43136.46883</v>
       </c>
-      <c r="G53" s="0" t="n">
+      <c r="G53" s="1" t="n">
         <v>9928.16</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54" s="1" t="n">
         <v>25121</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54" s="1" t="n">
         <v>68.13</v>
       </c>
-      <c r="D54" s="0" t="n">
+      <c r="D54" s="1" t="n">
         <v>0.632</v>
       </c>
-      <c r="E54" s="0" t="n">
+      <c r="E54" s="1" t="n">
         <v>66832.45706</v>
       </c>
-      <c r="F54" s="0" t="n">
+      <c r="F54" s="1" t="n">
         <v>53862.87242</v>
       </c>
-      <c r="G54" s="0" t="n">
+      <c r="G54" s="1" t="n">
         <v>11514.09</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55" s="1" t="n">
         <v>9698</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C55" s="1" t="n">
         <v>19.33</v>
       </c>
-      <c r="D55" s="0" t="n">
+      <c r="D55" s="1" t="n">
         <v>0.609</v>
       </c>
-      <c r="E55" s="0" t="n">
+      <c r="E55" s="1" t="n">
         <v>28587.71263</v>
       </c>
-      <c r="F55" s="0" t="n">
+      <c r="F55" s="1" t="n">
         <v>24445.95004</v>
       </c>
-      <c r="G55" s="0" t="n">
+      <c r="G55" s="1" t="n">
         <v>7643.75</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56" s="1" t="n">
         <v>7254</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56" s="1" t="n">
         <v>17.87</v>
       </c>
-      <c r="D56" s="0" t="n">
+      <c r="D56" s="1" t="n">
         <v>0.61</v>
       </c>
-      <c r="E56" s="0" t="n">
+      <c r="E56" s="1" t="n">
         <v>20139.95203</v>
       </c>
-      <c r="F56" s="0" t="n">
+      <c r="F56" s="1" t="n">
         <v>19068.06015</v>
       </c>
-      <c r="G56" s="0" t="n">
+      <c r="G56" s="1" t="n">
         <v>8013.73</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57" s="1" t="n">
         <v>55035</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C57" s="1" t="n">
         <v>582.66</v>
       </c>
-      <c r="D57" s="0" t="n">
+      <c r="D57" s="1" t="n">
         <v>0.701</v>
       </c>
-      <c r="E57" s="0" t="n">
+      <c r="E57" s="1" t="n">
         <v>281098.31547</v>
       </c>
-      <c r="F57" s="0" t="n">
+      <c r="F57" s="1" t="n">
         <v>251597.09476</v>
       </c>
-      <c r="G57" s="0" t="n">
+      <c r="G57" s="1" t="n">
         <v>59678.97</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="A58" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B58" s="0" t="n">
+      <c r="B58" s="1" t="n">
         <v>19330</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C58" s="1" t="n">
         <v>37.74</v>
       </c>
-      <c r="D58" s="0" t="n">
+      <c r="D58" s="1" t="n">
         <v>0.633</v>
       </c>
-      <c r="E58" s="0" t="n">
+      <c r="E58" s="1" t="n">
         <v>51471.39926</v>
       </c>
-      <c r="F58" s="0" t="n">
+      <c r="F58" s="1" t="n">
         <v>44726.55491</v>
       </c>
-      <c r="G58" s="0" t="n">
+      <c r="G58" s="1" t="n">
         <v>9689.49</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="A59" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="0" t="n">
+      <c r="B59" s="1" t="n">
         <v>24680</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C59" s="1" t="n">
         <v>42.14</v>
       </c>
-      <c r="D59" s="0" t="n">
+      <c r="D59" s="1" t="n">
         <v>0.644</v>
       </c>
-      <c r="E59" s="0" t="n">
+      <c r="E59" s="1" t="n">
         <v>59852.25615</v>
       </c>
-      <c r="F59" s="0" t="n">
+      <c r="F59" s="1" t="n">
         <v>55357.41569</v>
       </c>
-      <c r="G59" s="0" t="n">
+      <c r="G59" s="1" t="n">
         <v>9338.67</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="A60" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B60" s="1" t="n">
         <v>2703391</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C60" s="1" t="n">
         <v>7786.44</v>
       </c>
-      <c r="D60" s="0" t="n">
+      <c r="D60" s="1" t="n">
         <v>0.754</v>
       </c>
-      <c r="E60" s="0" t="n">
+      <c r="E60" s="1" t="n">
         <v>6810527.06948</v>
       </c>
-      <c r="F60" s="0" t="n">
+      <c r="F60" s="1" t="n">
         <v>6525657.82435</v>
       </c>
-      <c r="G60" s="0" t="n">
+      <c r="G60" s="1" t="n">
         <v>25254.44</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="A61" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B61" s="0" t="n">
+      <c r="B61" s="1" t="n">
         <v>16776</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C61" s="1" t="n">
         <v>53.15</v>
       </c>
-      <c r="D61" s="0" t="n">
+      <c r="D61" s="1" t="n">
         <v>0.624</v>
       </c>
-      <c r="E61" s="0" t="n">
+      <c r="E61" s="1" t="n">
         <v>46215.46717</v>
       </c>
-      <c r="F61" s="0" t="n">
+      <c r="F61" s="1" t="n">
         <v>41449.76087</v>
       </c>
-      <c r="G61" s="0" t="n">
+      <c r="G61" s="1" t="n">
         <v>12453.56</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="A62" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B62" s="0" t="n">
+      <c r="B62" s="1" t="n">
         <v>14195</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C62" s="1" t="n">
         <v>71.68</v>
       </c>
-      <c r="D62" s="0" t="n">
+      <c r="D62" s="1" t="n">
         <v>0.604</v>
       </c>
-      <c r="E62" s="0" t="n">
+      <c r="E62" s="1" t="n">
         <v>44426.33149</v>
       </c>
-      <c r="F62" s="0" t="n">
+      <c r="F62" s="1" t="n">
         <v>38675.59321</v>
       </c>
-      <c r="G62" s="0" t="n">
+      <c r="G62" s="1" t="n">
         <v>19074.28</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="A63" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="0" t="n">
+      <c r="B63" s="1" t="n">
         <v>7767</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="C63" s="1" t="n">
         <v>30.21</v>
       </c>
-      <c r="D63" s="0" t="n">
+      <c r="D63" s="1" t="n">
         <v>0.568</v>
       </c>
-      <c r="E63" s="0" t="n">
+      <c r="E63" s="1" t="n">
         <v>24583.97795</v>
       </c>
-      <c r="F63" s="0" t="n">
+      <c r="F63" s="1" t="n">
         <v>25385.03992</v>
       </c>
-      <c r="G63" s="0" t="n">
+      <c r="G63" s="1" t="n">
         <v>9169.88</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="A64" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B64" s="0" t="n">
+      <c r="B64" s="1" t="n">
         <v>14415</v>
       </c>
-      <c r="C64" s="0" t="n">
+      <c r="C64" s="1" t="n">
         <v>53.39</v>
       </c>
-      <c r="D64" s="0" t="n">
+      <c r="D64" s="1" t="n">
         <v>0.57</v>
       </c>
-      <c r="E64" s="0" t="n">
+      <c r="E64" s="1" t="n">
         <v>50466.39062</v>
       </c>
-      <c r="F64" s="0" t="n">
+      <c r="F64" s="1" t="n">
         <v>45677.84743</v>
       </c>
-      <c r="G64" s="0" t="n">
+      <c r="G64" s="1" t="n">
         <v>7359.99</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+      <c r="A65" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B65" s="0" t="n">
+      <c r="B65" s="1" t="n">
         <v>55170</v>
       </c>
-      <c r="C65" s="0" t="n">
+      <c r="C65" s="1" t="n">
         <v>19.52</v>
       </c>
-      <c r="D65" s="0" t="n">
+      <c r="D65" s="1" t="n">
         <v>0.559</v>
       </c>
-      <c r="E65" s="0" t="n">
+      <c r="E65" s="1" t="n">
         <v>107204.79999</v>
       </c>
-      <c r="F65" s="0" t="n">
+      <c r="F65" s="1" t="n">
         <v>106091.78735</v>
       </c>
-      <c r="G65" s="0" t="n">
+      <c r="G65" s="1" t="n">
         <v>7216.25</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="A66" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B66" s="0" t="n">
+      <c r="B66" s="1" t="n">
         <v>4784</v>
       </c>
-      <c r="C66" s="0" t="n">
+      <c r="C66" s="1" t="n">
         <v>46.23</v>
       </c>
-      <c r="D66" s="0" t="n">
+      <c r="D66" s="1" t="n">
         <v>0.585</v>
       </c>
-      <c r="E66" s="0" t="n">
+      <c r="E66" s="1" t="n">
         <v>16.63519</v>
       </c>
-      <c r="F66" s="0" t="n">
+      <c r="F66" s="1" t="n">
         <v>16804.48543</v>
       </c>
-      <c r="G66" s="0" t="n">
+      <c r="G66" s="1" t="n">
         <v>9308.8</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="A67" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B67" s="0" t="n">
+      <c r="B67" s="1" t="n">
         <v>11219</v>
       </c>
-      <c r="C67" s="0" t="n">
+      <c r="C67" s="1" t="n">
         <v>65.59</v>
       </c>
-      <c r="D67" s="0" t="n">
+      <c r="D67" s="1" t="n">
         <v>0.633</v>
       </c>
-      <c r="E67" s="0" t="n">
+      <c r="E67" s="1" t="n">
         <v>30387.53255</v>
       </c>
-      <c r="F67" s="0" t="n">
+      <c r="F67" s="1" t="n">
         <v>28903.84396</v>
       </c>
-      <c r="G67" s="0" t="n">
+      <c r="G67" s="1" t="n">
         <v>7913.4</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="A68" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B68" s="0" t="n">
+      <c r="B68" s="1" t="n">
         <v>26508</v>
       </c>
-      <c r="C68" s="0" t="n">
+      <c r="C68" s="1" t="n">
         <v>90.19</v>
       </c>
-      <c r="D68" s="0" t="n">
+      <c r="D68" s="1" t="n">
         <v>0.617</v>
       </c>
-      <c r="E68" s="0" t="n">
+      <c r="E68" s="1" t="n">
         <v>55147.27488</v>
       </c>
-      <c r="F68" s="0" t="n">
+      <c r="F68" s="1" t="n">
         <v>51598.99584</v>
       </c>
-      <c r="G68" s="0" t="n">
+      <c r="G68" s="1" t="n">
         <v>7815.77</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="A69" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B69" s="0" t="n">
+      <c r="B69" s="1" t="n">
         <v>40921</v>
       </c>
-      <c r="C69" s="0" t="n">
+      <c r="C69" s="1" t="n">
         <v>61.78</v>
       </c>
-      <c r="D69" s="0" t="n">
+      <c r="D69" s="1" t="n">
         <v>0.609</v>
       </c>
-      <c r="E69" s="0" t="n">
+      <c r="E69" s="1" t="n">
         <v>105405.88413</v>
       </c>
-      <c r="F69" s="0" t="n">
+      <c r="F69" s="1" t="n">
         <v>90370.30516</v>
       </c>
-      <c r="G69" s="0" t="n">
+      <c r="G69" s="1" t="n">
         <v>13750.88</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="A70" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B70" s="0" t="n">
+      <c r="B70" s="1" t="n">
         <v>5073</v>
       </c>
-      <c r="C70" s="0" t="n">
+      <c r="C70" s="1" t="n">
         <v>70.06</v>
       </c>
-      <c r="D70" s="0" t="n">
+      <c r="D70" s="1" t="n">
         <v>0.637</v>
       </c>
-      <c r="E70" s="0" t="n">
+      <c r="E70" s="1" t="n">
         <v>32183.19369</v>
       </c>
-      <c r="F70" s="0" t="n">
+      <c r="F70" s="1" t="n">
         <v>20840.76729</v>
       </c>
-      <c r="G70" s="0" t="n">
+      <c r="G70" s="1" t="n">
         <v>14492.44</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="A71" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B71" s="0" t="n">
+      <c r="B71" s="1" t="n">
         <v>20126</v>
       </c>
-      <c r="C71" s="0" t="n">
+      <c r="C71" s="1" t="n">
         <v>19.99</v>
       </c>
-      <c r="D71" s="0" t="n">
+      <c r="D71" s="1" t="n">
         <v>0.597</v>
       </c>
-      <c r="E71" s="0" t="n">
+      <c r="E71" s="1" t="n">
         <v>40945.08241</v>
       </c>
-      <c r="F71" s="0" t="n">
+      <c r="F71" s="1" t="n">
         <v>37985.57052</v>
       </c>
-      <c r="G71" s="0" t="n">
+      <c r="G71" s="1" t="n">
         <v>7669.66</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="A72" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B72" s="0" t="n">
+      <c r="B72" s="1" t="n">
         <v>69688</v>
       </c>
-      <c r="C72" s="0" t="n">
+      <c r="C72" s="1" t="n">
         <v>344.96</v>
       </c>
-      <c r="D72" s="0" t="n">
+      <c r="D72" s="1" t="n">
         <v>0.658</v>
       </c>
-      <c r="E72" s="0" t="n">
+      <c r="E72" s="1" t="n">
         <v>193783.1808</v>
       </c>
-      <c r="F72" s="0" t="n">
+      <c r="F72" s="1" t="n">
         <v>175778.48186</v>
       </c>
-      <c r="G72" s="0" t="n">
+      <c r="G72" s="1" t="n">
         <v>25238.28</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="A73" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B73" s="0" t="n">
+      <c r="B73" s="1" t="n">
         <v>13385</v>
       </c>
-      <c r="C73" s="0" t="n">
+      <c r="C73" s="1" t="n">
         <v>14.73</v>
       </c>
-      <c r="D73" s="0" t="n">
+      <c r="D73" s="1" t="n">
         <v>0.577</v>
       </c>
-      <c r="E73" s="0" t="n">
+      <c r="E73" s="1" t="n">
         <v>28682.80626</v>
       </c>
-      <c r="F73" s="0" t="n">
+      <c r="F73" s="1" t="n">
         <v>28828.38628</v>
       </c>
-      <c r="G73" s="0" t="n">
+      <c r="G73" s="1" t="n">
         <v>8139.71</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="A74" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B74" s="0" t="n">
+      <c r="B74" s="1" t="n">
         <v>25165</v>
       </c>
-      <c r="C74" s="0" t="n">
+      <c r="C74" s="1" t="n">
         <v>57.38</v>
       </c>
-      <c r="D74" s="0" t="n">
+      <c r="D74" s="1" t="n">
         <v>0.608</v>
       </c>
-      <c r="E74" s="0" t="n">
+      <c r="E74" s="1" t="n">
         <v>51973.94305</v>
       </c>
-      <c r="F74" s="0" t="n">
+      <c r="F74" s="1" t="n">
         <v>46606.54475</v>
       </c>
-      <c r="G74" s="0" t="n">
+      <c r="G74" s="1" t="n">
         <v>12499.61</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+      <c r="A75" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B75" s="0" t="n">
+      <c r="B75" s="1" t="n">
         <v>12730</v>
       </c>
-      <c r="C75" s="0" t="n">
+      <c r="C75" s="1" t="n">
         <v>26.72</v>
       </c>
-      <c r="D75" s="0" t="n">
+      <c r="D75" s="1" t="n">
         <v>0.606</v>
       </c>
-      <c r="E75" s="0" t="n">
+      <c r="E75" s="1" t="n">
         <v>32884.86905</v>
       </c>
-      <c r="F75" s="0" t="n">
+      <c r="F75" s="1" t="n">
         <v>28419.81875</v>
       </c>
-      <c r="G75" s="0" t="n">
+      <c r="G75" s="1" t="n">
         <v>8066.43</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+      <c r="A76" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B76" s="0" t="n">
+      <c r="B76" s="1" t="n">
         <v>20183</v>
       </c>
-      <c r="C76" s="0" t="n">
+      <c r="C76" s="1" t="n">
         <v>43.43</v>
       </c>
-      <c r="D76" s="0" t="n">
+      <c r="D76" s="1" t="n">
         <v>0.616</v>
       </c>
-      <c r="E76" s="0" t="n">
+      <c r="E76" s="1" t="n">
         <v>93890.53522</v>
       </c>
-      <c r="F76" s="0" t="n">
+      <c r="F76" s="1" t="n">
         <v>82328.16553</v>
       </c>
-      <c r="G76" s="0" t="n">
+      <c r="G76" s="1" t="n">
         <v>17992.33</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+      <c r="A77" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B77" s="0" t="n">
+      <c r="B77" s="1" t="n">
         <v>68303</v>
       </c>
-      <c r="C77" s="0" t="n">
+      <c r="C77" s="1" t="n">
         <v>34.97</v>
       </c>
-      <c r="D77" s="0" t="n">
+      <c r="D77" s="1" t="n">
         <v>0.606</v>
       </c>
-      <c r="E77" s="0" t="n">
+      <c r="E77" s="1" t="n">
         <v>121888.3251</v>
       </c>
-      <c r="F77" s="0" t="n">
+      <c r="F77" s="1" t="n">
         <v>120450.04181</v>
       </c>
-      <c r="G77" s="0" t="n">
+      <c r="G77" s="1" t="n">
         <v>9019.17</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="A78" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B78" s="0" t="n">
+      <c r="B78" s="1" t="n">
         <v>103633</v>
       </c>
-      <c r="C78" s="0" t="n">
+      <c r="C78" s="1" t="n">
         <v>93.76</v>
       </c>
-      <c r="D78" s="0" t="n">
+      <c r="D78" s="1" t="n">
         <v>0.677</v>
       </c>
-      <c r="E78" s="0" t="n">
+      <c r="E78" s="1" t="n">
         <v>217787.90904</v>
       </c>
-      <c r="F78" s="0" t="n">
+      <c r="F78" s="1" t="n">
         <v>200741.43321</v>
       </c>
-      <c r="G78" s="0" t="n">
+      <c r="G78" s="1" t="n">
         <v>16562.4</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+      <c r="A79" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B79" s="0" t="n">
+      <c r="B79" s="1" t="n">
         <v>26196</v>
       </c>
-      <c r="C79" s="0" t="n">
+      <c r="C79" s="1" t="n">
         <v>7.95</v>
       </c>
-      <c r="D79" s="0" t="n">
+      <c r="D79" s="1" t="n">
         <v>0.632</v>
       </c>
-      <c r="E79" s="0" t="n">
+      <c r="E79" s="1" t="n">
         <v>50895.19251</v>
       </c>
-      <c r="F79" s="0" t="n">
+      <c r="F79" s="1" t="n">
         <v>47668.2617</v>
       </c>
-      <c r="G79" s="0" t="n">
+      <c r="G79" s="1" t="n">
         <v>9479.72</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="A80" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B80" s="0" t="n">
+      <c r="B80" s="1" t="n">
         <v>11597</v>
       </c>
-      <c r="C80" s="0" t="n">
+      <c r="C80" s="1" t="n">
         <v>16.16</v>
       </c>
-      <c r="D80" s="0" t="n">
+      <c r="D80" s="1" t="n">
         <v>0.579</v>
       </c>
-      <c r="E80" s="0" t="n">
+      <c r="E80" s="1" t="n">
         <v>31035.32593</v>
       </c>
-      <c r="F80" s="0" t="n">
+      <c r="F80" s="1" t="n">
         <v>31543.55553</v>
       </c>
-      <c r="G80" s="0" t="n">
+      <c r="G80" s="1" t="n">
         <v>7586.38</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+      <c r="A81" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B81" s="0" t="n">
+      <c r="B81" s="1" t="n">
         <v>12507</v>
       </c>
-      <c r="C81" s="0" t="n">
+      <c r="C81" s="1" t="n">
         <v>43.86</v>
       </c>
-      <c r="D81" s="0" t="n">
+      <c r="D81" s="1" t="n">
         <v>0.606</v>
       </c>
-      <c r="E81" s="0" t="n">
+      <c r="E81" s="1" t="n">
         <v>26749.06499</v>
       </c>
-      <c r="F81" s="0" t="n">
+      <c r="F81" s="1" t="n">
         <v>26533.50603</v>
       </c>
-      <c r="G81" s="0" t="n">
+      <c r="G81" s="1" t="n">
         <v>9974.77</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="A82" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B82" s="0" t="n">
+      <c r="B82" s="1" t="n">
         <v>42148</v>
       </c>
-      <c r="C82" s="0" t="n">
+      <c r="C82" s="1" t="n">
         <v>64.03</v>
       </c>
-      <c r="D82" s="0" t="n">
+      <c r="D82" s="1" t="n">
         <v>0.618</v>
       </c>
-      <c r="E82" s="0" t="n">
+      <c r="E82" s="1" t="n">
         <v>95058.00809</v>
       </c>
-      <c r="F82" s="0" t="n">
+      <c r="F82" s="1" t="n">
         <v>85477.94975</v>
       </c>
-      <c r="G82" s="0" t="n">
+      <c r="G82" s="1" t="n">
         <v>10630.67</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="A83" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B83" s="0" t="n">
+      <c r="B83" s="1" t="n">
         <v>38064</v>
       </c>
-      <c r="C83" s="0" t="n">
+      <c r="C83" s="1" t="n">
         <v>25.63</v>
       </c>
-      <c r="D83" s="0" t="n">
+      <c r="D83" s="1" t="n">
         <v>0.573</v>
       </c>
-      <c r="E83" s="0" t="n">
+      <c r="E83" s="1" t="n">
         <v>85184.00785</v>
       </c>
-      <c r="F83" s="0" t="n">
+      <c r="F83" s="1" t="n">
         <v>78943.66079</v>
       </c>
-      <c r="G83" s="0" t="n">
+      <c r="G83" s="1" t="n">
         <v>7329.28</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+      <c r="A84" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B84" s="0" t="n">
+      <c r="B84" s="1" t="n">
         <v>14351</v>
       </c>
-      <c r="C84" s="0" t="n">
+      <c r="C84" s="1" t="n">
         <v>16.71</v>
       </c>
-      <c r="D84" s="0" t="n">
+      <c r="D84" s="1" t="n">
         <v>0.652</v>
       </c>
-      <c r="E84" s="0" t="n">
+      <c r="E84" s="1" t="n">
         <v>43144.92393</v>
       </c>
-      <c r="F84" s="0" t="n">
+      <c r="F84" s="1" t="n">
         <v>43284.80094</v>
       </c>
-      <c r="G84" s="0" t="n">
+      <c r="G84" s="1" t="n">
         <v>10450.22</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+      <c r="A85" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B85" s="0" t="n">
+      <c r="B85" s="1" t="n">
         <v>24450</v>
       </c>
-      <c r="C85" s="0" t="n">
+      <c r="C85" s="1" t="n">
         <v>15.28</v>
       </c>
-      <c r="D85" s="0" t="n">
+      <c r="D85" s="1" t="n">
         <v>0.605</v>
       </c>
-      <c r="E85" s="0" t="n">
+      <c r="E85" s="1" t="n">
         <v>57618.57886</v>
       </c>
-      <c r="F85" s="0" t="n">
+      <c r="F85" s="1" t="n">
         <v>51199.17333</v>
       </c>
-      <c r="G85" s="0" t="n">
+      <c r="G85" s="1" t="n">
         <v>7805.48</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+      <c r="A86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B86" s="0" t="n">
+      <c r="B86" s="1" t="n">
         <v>7904</v>
       </c>
-      <c r="C86" s="0" t="n">
+      <c r="C86" s="1" t="n">
         <v>34.49</v>
       </c>
-      <c r="D86" s="0" t="n">
+      <c r="D86" s="1" t="n">
         <v>0.656</v>
       </c>
-      <c r="E86" s="0" t="n">
+      <c r="E86" s="1" t="n">
         <v>24405.74731</v>
       </c>
-      <c r="F86" s="0" t="n">
+      <c r="F86" s="1" t="n">
         <v>21829.31688</v>
       </c>
-      <c r="G86" s="0" t="n">
+      <c r="G86" s="1" t="n">
         <v>8755.57</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+      <c r="A87" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B87" s="0" t="n">
+      <c r="B87" s="1" t="n">
         <v>38661</v>
       </c>
-      <c r="C87" s="0" t="n">
+      <c r="C87" s="1" t="n">
         <v>236.51</v>
       </c>
-      <c r="D87" s="0" t="n">
+      <c r="D87" s="1" t="n">
         <v>0.626</v>
       </c>
-      <c r="E87" s="0" t="n">
+      <c r="E87" s="1" t="n">
         <v>100395.80561</v>
       </c>
-      <c r="F87" s="0" t="n">
+      <c r="F87" s="1" t="n">
         <v>91053.8776</v>
       </c>
-      <c r="G87" s="0" t="n">
+      <c r="G87" s="1" t="n">
         <v>19036.94</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+      <c r="A88" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B88" s="0" t="n">
+      <c r="B88" s="1" t="n">
         <v>53448</v>
       </c>
-      <c r="C88" s="0" t="n">
+      <c r="C88" s="1" t="n">
         <v>110.01</v>
       </c>
-      <c r="D88" s="0" t="n">
+      <c r="D88" s="1" t="n">
         <v>0.623</v>
       </c>
-      <c r="E88" s="0" t="n">
+      <c r="E88" s="1" t="n">
         <v>113391.49212</v>
       </c>
-      <c r="F88" s="0" t="n">
+      <c r="F88" s="1" t="n">
         <v>101400.18181</v>
       </c>
-      <c r="G88" s="0" t="n">
+      <c r="G88" s="1" t="n">
         <v>12151.92</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+      <c r="A89" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B89" s="0" t="n">
+      <c r="B89" s="1" t="n">
         <v>131687</v>
       </c>
-      <c r="C89" s="0" t="n">
+      <c r="C89" s="1" t="n">
         <v>71.9</v>
       </c>
-      <c r="D89" s="0" t="n">
+      <c r="D89" s="1" t="n">
         <v>0.64</v>
       </c>
-      <c r="E89" s="0" t="n">
+      <c r="E89" s="1" t="n">
         <v>268626.66471</v>
       </c>
-      <c r="F89" s="0" t="n">
+      <c r="F89" s="1" t="n">
         <v>239926.54933</v>
       </c>
-      <c r="G89" s="0" t="n">
+      <c r="G89" s="1" t="n">
         <v>12969.77</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+      <c r="A90" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B90" s="0" t="n">
+      <c r="B90" s="1" t="n">
         <v>20653</v>
       </c>
-      <c r="C90" s="0" t="n">
+      <c r="C90" s="1" t="n">
         <v>31.64</v>
       </c>
-      <c r="D90" s="0" t="n">
+      <c r="D90" s="1" t="n">
         <v>0.604</v>
       </c>
-      <c r="E90" s="0" t="n">
+      <c r="E90" s="1" t="n">
         <v>65456.73673</v>
       </c>
-      <c r="F90" s="0" t="n">
+      <c r="F90" s="1" t="n">
         <v>45448.28476</v>
       </c>
-      <c r="G90" s="0" t="n">
+      <c r="G90" s="1" t="n">
         <v>7155.92</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+      <c r="A91" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B91" s="0" t="n">
+      <c r="B91" s="1" t="n">
         <v>42595</v>
       </c>
-      <c r="C91" s="0" t="n">
+      <c r="C91" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="D91" s="0" t="n">
+      <c r="D91" s="1" t="n">
         <v>0.606</v>
       </c>
-      <c r="E91" s="0" t="n">
+      <c r="E91" s="1" t="n">
         <v>100102.24161</v>
       </c>
-      <c r="F91" s="0" t="n">
+      <c r="F91" s="1" t="n">
         <v>93239.96143</v>
       </c>
-      <c r="G91" s="0" t="n">
+      <c r="G91" s="1" t="n">
         <v>14717.77</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+      <c r="A92" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B92" s="0" t="n">
+      <c r="B92" s="1" t="n">
         <v>22018</v>
       </c>
-      <c r="C92" s="0" t="n">
+      <c r="C92" s="1" t="n">
         <v>24.12</v>
       </c>
-      <c r="D92" s="0" t="n">
+      <c r="D92" s="1" t="n">
         <v>0.562</v>
       </c>
-      <c r="E92" s="0" t="n">
+      <c r="E92" s="1" t="n">
         <v>76025.83975</v>
       </c>
-      <c r="F92" s="0" t="n">
+      <c r="F92" s="1" t="n">
         <v>60600.42204</v>
       </c>
-      <c r="G92" s="0" t="n">
+      <c r="G92" s="1" t="n">
         <v>6323.87</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+      <c r="A93" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B93" s="0" t="n">
+      <c r="B93" s="1" t="n">
         <v>18133</v>
       </c>
-      <c r="C93" s="0" t="n">
+      <c r="C93" s="1" t="n">
         <v>10.15</v>
       </c>
-      <c r="D93" s="0" t="n">
+      <c r="D93" s="1" t="n">
         <v>0.612</v>
       </c>
-      <c r="E93" s="0" t="n">
+      <c r="E93" s="1" t="n">
         <v>49201.83037</v>
       </c>
-      <c r="F93" s="0" t="n">
+      <c r="F93" s="1" t="n">
         <v>35976.64248</v>
       </c>
-      <c r="G93" s="0" t="n">
+      <c r="G93" s="1" t="n">
         <v>9383.55</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+      <c r="A94" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B94" s="0" t="n">
+      <c r="B94" s="1" t="n">
         <v>11580</v>
       </c>
-      <c r="C94" s="0" t="n">
+      <c r="C94" s="1" t="n">
         <v>15.55</v>
       </c>
-      <c r="D94" s="0" t="n">
+      <c r="D94" s="1" t="n">
         <v>0.618</v>
       </c>
-      <c r="E94" s="0" t="n">
+      <c r="E94" s="1" t="n">
         <v>28167.84306</v>
       </c>
-      <c r="F94" s="0" t="n">
+      <c r="F94" s="1" t="n">
         <v>26656.01281</v>
       </c>
-      <c r="G94" s="0" t="n">
+      <c r="G94" s="1" t="n">
         <v>11119.86</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+      <c r="A95" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B95" s="0" t="n">
+      <c r="B95" s="1" t="n">
         <v>34592</v>
       </c>
-      <c r="C95" s="0" t="n">
+      <c r="C95" s="1" t="n">
         <v>18.33</v>
       </c>
-      <c r="D95" s="0" t="n">
+      <c r="D95" s="1" t="n">
         <v>0.621</v>
       </c>
-      <c r="E95" s="0" t="n">
+      <c r="E95" s="1" t="n">
         <v>85507.21442</v>
       </c>
-      <c r="F95" s="0" t="n">
+      <c r="F95" s="1" t="n">
         <v>82644.15907</v>
       </c>
-      <c r="G95" s="0" t="n">
+      <c r="G95" s="1" t="n">
         <v>14728.93</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+      <c r="A96" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B96" s="0" t="n">
+      <c r="B96" s="1" t="n">
         <v>33960</v>
       </c>
-      <c r="C96" s="0" t="n">
+      <c r="C96" s="1" t="n">
         <v>37.16</v>
       </c>
-      <c r="D96" s="0" t="n">
+      <c r="D96" s="1" t="n">
         <v>0.624</v>
       </c>
-      <c r="E96" s="0" t="n">
+      <c r="E96" s="1" t="n">
         <v>69049.41624</v>
       </c>
-      <c r="F96" s="0" t="n">
+      <c r="F96" s="1" t="n">
         <v>69046.51936</v>
       </c>
-      <c r="G96" s="0" t="n">
+      <c r="G96" s="1" t="n">
         <v>14080.15</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+      <c r="A97" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B97" s="0" t="n">
+      <c r="B97" s="1" t="n">
         <v>27187</v>
       </c>
-      <c r="C97" s="0" t="n">
+      <c r="C97" s="1" t="n">
         <v>48.31</v>
       </c>
-      <c r="D97" s="0" t="n">
+      <c r="D97" s="1" t="n">
         <v>0.614</v>
       </c>
-      <c r="E97" s="0" t="n">
+      <c r="E97" s="1" t="n">
         <v>58468.86665</v>
       </c>
-      <c r="F97" s="0" t="n">
+      <c r="F97" s="1" t="n">
         <v>52203.50615</v>
       </c>
-      <c r="G97" s="0" t="n">
+      <c r="G97" s="1" t="n">
         <v>8497.98</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+      <c r="A98" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B98" s="0" t="n">
+      <c r="B98" s="1" t="n">
         <v>8150</v>
       </c>
-      <c r="C98" s="0" t="n">
+      <c r="C98" s="1" t="n">
         <v>21.21</v>
       </c>
-      <c r="D98" s="0" t="n">
+      <c r="D98" s="1" t="n">
         <v>0.651</v>
       </c>
-      <c r="E98" s="0" t="n">
+      <c r="E98" s="1" t="n">
         <v>32089.96358</v>
       </c>
-      <c r="F98" s="0" t="n">
+      <c r="F98" s="1" t="n">
         <v>28222.35564</v>
       </c>
-      <c r="G98" s="0" t="n">
+      <c r="G98" s="1" t="n">
         <v>13889.97</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+      <c r="A99" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B99" s="0" t="n">
+      <c r="B99" s="1" t="n">
         <v>20351</v>
       </c>
-      <c r="C99" s="0" t="n">
+      <c r="C99" s="1" t="n">
         <v>83.02</v>
       </c>
-      <c r="D99" s="0" t="n">
+      <c r="D99" s="1" t="n">
         <v>0.652</v>
       </c>
-      <c r="E99" s="0" t="n">
+      <c r="E99" s="1" t="n">
         <v>62313.16657</v>
       </c>
-      <c r="F99" s="0" t="n">
+      <c r="F99" s="1" t="n">
         <v>60923.78966</v>
       </c>
-      <c r="G99" s="0" t="n">
+      <c r="G99" s="1" t="n">
         <v>24924.54</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+      <c r="A100" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B100" s="0" t="n">
+      <c r="B100" s="1" t="n">
         <v>278264</v>
       </c>
-      <c r="C100" s="0" t="n">
+      <c r="C100" s="1" t="n">
         <v>1004.45</v>
       </c>
-      <c r="D100" s="0" t="n">
+      <c r="D100" s="1" t="n">
         <v>0.694</v>
       </c>
-      <c r="E100" s="0" t="n">
+      <c r="E100" s="1" t="n">
         <v>672950.28823</v>
       </c>
-      <c r="F100" s="0" t="n">
+      <c r="F100" s="1" t="n">
         <v>522709.24412</v>
       </c>
-      <c r="G100" s="0" t="n">
+      <c r="G100" s="1" t="n">
         <v>17772.55</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+      <c r="A101" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B101" s="0" t="n">
+      <c r="B101" s="1" t="n">
         <v>24949</v>
       </c>
-      <c r="C101" s="0" t="n">
+      <c r="C101" s="1" t="n">
         <v>25.4</v>
       </c>
-      <c r="D101" s="0" t="n">
+      <c r="D101" s="1" t="n">
         <v>0.598</v>
       </c>
-      <c r="E101" s="0" t="n">
+      <c r="E101" s="1" t="n">
         <v>55718.34201</v>
       </c>
-      <c r="F101" s="0" t="n">
+      <c r="F101" s="1" t="n">
         <v>53527.80103</v>
       </c>
-      <c r="G101" s="0" t="n">
+      <c r="G101" s="1" t="n">
         <v>9843.98</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+      <c r="A102" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B102" s="0" t="n">
+      <c r="B102" s="1" t="n">
         <v>31476</v>
       </c>
-      <c r="C102" s="0" t="n">
+      <c r="C102" s="1" t="n">
         <v>32.8</v>
       </c>
-      <c r="D102" s="0" t="n">
+      <c r="D102" s="1" t="n">
         <v>0.613</v>
       </c>
-      <c r="E102" s="0" t="n">
+      <c r="E102" s="1" t="n">
         <v>67220.81129</v>
       </c>
-      <c r="F102" s="0" t="n">
+      <c r="F102" s="1" t="n">
         <v>56816.99038</v>
       </c>
-      <c r="G102" s="0" t="n">
+      <c r="G102" s="1" t="n">
         <v>8650.81</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+      <c r="A103" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B103" s="0" t="n">
+      <c r="B103" s="1" t="n">
         <v>60232</v>
       </c>
-      <c r="C103" s="0" t="n">
+      <c r="C103" s="1" t="n">
         <v>74.91</v>
       </c>
-      <c r="D103" s="0" t="n">
+      <c r="D103" s="1" t="n">
         <v>0.682</v>
       </c>
-      <c r="E103" s="0" t="n">
+      <c r="E103" s="1" t="n">
         <v>115645.24638</v>
       </c>
-      <c r="F103" s="0" t="n">
+      <c r="F103" s="1" t="n">
         <v>106746.35266</v>
       </c>
-      <c r="G103" s="0" t="n">
+      <c r="G103" s="1" t="n">
         <v>17569.97</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+      <c r="A104" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B104" s="0" t="n">
+      <c r="B104" s="1" t="n">
         <v>20031</v>
       </c>
-      <c r="C104" s="0" t="n">
+      <c r="C104" s="1" t="n">
         <v>17.48</v>
       </c>
-      <c r="D104" s="0" t="n">
+      <c r="D104" s="1" t="n">
         <v>0.61</v>
       </c>
-      <c r="E104" s="0" t="n">
+      <c r="E104" s="1" t="n">
         <v>41301.98044</v>
       </c>
-      <c r="F104" s="0" t="n">
+      <c r="F104" s="1" t="n">
         <v>39124.62753</v>
       </c>
-      <c r="G104" s="0" t="n">
+      <c r="G104" s="1" t="n">
         <v>7184.54</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+      <c r="A105" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B105" s="0" t="n">
+      <c r="B105" s="1" t="n">
         <v>230986</v>
       </c>
-      <c r="C105" s="0" t="n">
+      <c r="C105" s="1" t="n">
         <v>1960.25</v>
       </c>
-      <c r="D105" s="0" t="n">
+      <c r="D105" s="1" t="n">
         <v>0.686</v>
       </c>
-      <c r="E105" s="0" t="n">
+      <c r="E105" s="1" t="n">
         <v>724429.98265</v>
       </c>
-      <c r="F105" s="0" t="n">
+      <c r="F105" s="1" t="n">
         <v>657108.09501</v>
       </c>
-      <c r="G105" s="0" t="n">
+      <c r="G105" s="1" t="n">
         <v>42778.34</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+      <c r="A106" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B106" s="0" t="n">
+      <c r="B106" s="1" t="n">
         <v>131677</v>
       </c>
-      <c r="C106" s="0" t="n">
+      <c r="C106" s="1" t="n">
         <v>192.19</v>
       </c>
-      <c r="D106" s="0" t="n">
+      <c r="D106" s="1" t="n">
         <v>0.659</v>
       </c>
-      <c r="E106" s="0" t="n">
+      <c r="E106" s="1" t="n">
         <v>197385.57777</v>
       </c>
-      <c r="F106" s="0" t="n">
+      <c r="F106" s="1" t="n">
         <v>193904.06851</v>
       </c>
-      <c r="G106" s="0" t="n">
+      <c r="G106" s="1" t="n">
         <v>11897.88</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
+      <c r="A107" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B107" s="0" t="n">
+      <c r="B107" s="1" t="n">
         <v>27822</v>
       </c>
-      <c r="C107" s="0" t="n">
+      <c r="C107" s="1" t="n">
         <v>43.03</v>
       </c>
-      <c r="D107" s="0" t="n">
+      <c r="D107" s="1" t="n">
         <v>0.612</v>
       </c>
-      <c r="E107" s="0" t="n">
+      <c r="E107" s="1" t="n">
         <v>64664.2363</v>
       </c>
-      <c r="F107" s="0" t="n">
+      <c r="F107" s="1" t="n">
         <v>57587.68763</v>
       </c>
-      <c r="G107" s="0" t="n">
+      <c r="G107" s="1" t="n">
         <v>12190.47</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
+      <c r="A108" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B108" s="0" t="n">
+      <c r="B108" s="1" t="n">
         <v>11407</v>
       </c>
-      <c r="C108" s="0" t="n">
+      <c r="C108" s="1" t="n">
         <v>34.16</v>
       </c>
-      <c r="D108" s="0" t="n">
+      <c r="D108" s="1" t="n">
         <v>0.599</v>
       </c>
-      <c r="E108" s="0" t="n">
+      <c r="E108" s="1" t="n">
         <v>30155.02181</v>
       </c>
-      <c r="F108" s="0" t="n">
+      <c r="F108" s="1" t="n">
         <v>29615.54391</v>
       </c>
-      <c r="G108" s="0" t="n">
+      <c r="G108" s="1" t="n">
         <v>7147.23</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+      <c r="A109" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B109" s="0" t="n">
+      <c r="B109" s="1" t="n">
         <v>39341</v>
       </c>
-      <c r="C109" s="0" t="n">
+      <c r="C109" s="1" t="n">
         <v>62.11</v>
       </c>
-      <c r="D109" s="0" t="n">
+      <c r="D109" s="1" t="n">
         <v>0.616</v>
       </c>
-      <c r="E109" s="0" t="n">
+      <c r="E109" s="1" t="n">
         <v>101272.15812</v>
       </c>
-      <c r="F109" s="0" t="n">
+      <c r="F109" s="1" t="n">
         <v>81630.43037</v>
       </c>
-      <c r="G109" s="0" t="n">
+      <c r="G109" s="1" t="n">
         <v>7619.69</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
+      <c r="A110" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B110" s="0" t="n">
+      <c r="B110" s="1" t="n">
         <v>48370</v>
       </c>
-      <c r="C110" s="0" t="n">
+      <c r="C110" s="1" t="n">
         <v>42.15</v>
       </c>
-      <c r="D110" s="0" t="n">
+      <c r="D110" s="1" t="n">
         <v>0.605</v>
       </c>
-      <c r="E110" s="0" t="n">
+      <c r="E110" s="1" t="n">
         <v>88623.54391</v>
       </c>
-      <c r="F110" s="0" t="n">
+      <c r="F110" s="1" t="n">
         <v>87085.54274</v>
       </c>
-      <c r="G110" s="0" t="n">
+      <c r="G110" s="1" t="n">
         <v>8777.58</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
+      <c r="A111" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B111" s="0" t="n">
+      <c r="B111" s="1" t="n">
         <v>15309</v>
       </c>
-      <c r="C111" s="0" t="n">
+      <c r="C111" s="1" t="n">
         <v>91.38</v>
       </c>
-      <c r="D111" s="0" t="n">
+      <c r="D111" s="1" t="n">
         <v>0.618</v>
       </c>
-      <c r="E111" s="0" t="n">
+      <c r="E111" s="1" t="n">
         <v>40227.84038</v>
       </c>
-      <c r="F111" s="0" t="n">
+      <c r="F111" s="1" t="n">
         <v>35949.35702</v>
       </c>
-      <c r="G111" s="0" t="n">
+      <c r="G111" s="1" t="n">
         <v>7347.83</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
+      <c r="A112" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B112" s="0" t="n">
+      <c r="B112" s="1" t="n">
         <v>27413</v>
       </c>
-      <c r="C112" s="0" t="n">
+      <c r="C112" s="1" t="n">
         <v>46.69</v>
       </c>
-      <c r="D112" s="0" t="n">
+      <c r="D112" s="1" t="n">
         <v>0.628</v>
       </c>
-      <c r="E112" s="0" t="n">
+      <c r="E112" s="1" t="n">
         <v>62154.81674</v>
       </c>
-      <c r="F112" s="0" t="n">
+      <c r="F112" s="1" t="n">
         <v>53491.71754</v>
       </c>
-      <c r="G112" s="0" t="n">
+      <c r="G112" s="1" t="n">
         <v>8754.93</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
+      <c r="A113" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B113" s="0" t="n">
+      <c r="B113" s="1" t="n">
         <v>13129</v>
       </c>
-      <c r="C113" s="0" t="n">
+      <c r="C113" s="1" t="n">
         <v>26.05</v>
       </c>
-      <c r="D113" s="0" t="n">
+      <c r="D113" s="1" t="n">
         <v>0.626</v>
       </c>
-      <c r="E113" s="0" t="n">
+      <c r="E113" s="1" t="n">
         <v>35731.74713</v>
       </c>
-      <c r="F113" s="0" t="n">
+      <c r="F113" s="1" t="n">
         <v>31509.00394</v>
       </c>
-      <c r="G113" s="0" t="n">
+      <c r="G113" s="1" t="n">
         <v>10684.16</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+      <c r="A114" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B114" s="0" t="n">
+      <c r="B114" s="1" t="n">
         <v>13965</v>
       </c>
-      <c r="C114" s="0" t="n">
+      <c r="C114" s="1" t="n">
         <v>18.29</v>
       </c>
-      <c r="D114" s="0" t="n">
+      <c r="D114" s="1" t="n">
         <v>0.592</v>
       </c>
-      <c r="E114" s="0" t="n">
+      <c r="E114" s="1" t="n">
         <v>31540.70901</v>
       </c>
-      <c r="F114" s="0" t="n">
+      <c r="F114" s="1" t="n">
         <v>31469.47985</v>
       </c>
-      <c r="G114" s="0" t="n">
+      <c r="G114" s="1" t="n">
         <v>6643.01</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
+      <c r="A115" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B115" s="0" t="n">
+      <c r="B115" s="1" t="n">
         <v>35566</v>
       </c>
-      <c r="C115" s="0" t="n">
+      <c r="C115" s="1" t="n">
         <v>53.08</v>
       </c>
-      <c r="D115" s="0" t="n">
+      <c r="D115" s="1" t="n">
         <v>0.622</v>
       </c>
-      <c r="E115" s="0" t="n">
+      <c r="E115" s="1" t="n">
         <v>75644.0299</v>
       </c>
-      <c r="F115" s="0" t="n">
+      <c r="F115" s="1" t="n">
         <v>68822.84345</v>
       </c>
-      <c r="G115" s="0" t="n">
+      <c r="G115" s="1" t="n">
         <v>13325.51</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
+      <c r="A116" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B116" s="0" t="n">
+      <c r="B116" s="1" t="n">
         <v>43917</v>
       </c>
-      <c r="C116" s="0" t="n">
+      <c r="C116" s="1" t="n">
         <v>20.14</v>
       </c>
-      <c r="D116" s="0" t="n">
+      <c r="D116" s="1" t="n">
         <v>0.582</v>
       </c>
-      <c r="E116" s="0" t="n">
+      <c r="E116" s="1" t="n">
         <v>82316.49363</v>
       </c>
-      <c r="F116" s="0" t="n">
+      <c r="F116" s="1" t="n">
         <v>75706.9863</v>
       </c>
-      <c r="G116" s="0" t="n">
+      <c r="G116" s="1" t="n">
         <v>7825.89</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
+      <c r="A117" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B117" s="0" t="n">
+      <c r="B117" s="1" t="n">
         <v>17264</v>
       </c>
-      <c r="C117" s="0" t="n">
+      <c r="C117" s="1" t="n">
         <v>18.85</v>
       </c>
-      <c r="D117" s="0" t="n">
+      <c r="D117" s="1" t="n">
         <v>0.61</v>
       </c>
-      <c r="E117" s="0" t="n">
+      <c r="E117" s="1" t="n">
         <v>44058.07424</v>
       </c>
-      <c r="F117" s="0" t="n">
+      <c r="F117" s="1" t="n">
         <v>43438.91752</v>
       </c>
-      <c r="G117" s="0" t="n">
+      <c r="G117" s="1" t="n">
         <v>8194.74</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
+      <c r="A118" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B118" s="0" t="n">
+      <c r="B118" s="1" t="n">
         <v>61590</v>
       </c>
-      <c r="C118" s="0" t="n">
+      <c r="C118" s="1" t="n">
         <v>22.33</v>
       </c>
-      <c r="D118" s="0" t="n">
+      <c r="D118" s="1" t="n">
         <v>0.61</v>
       </c>
-      <c r="E118" s="0" t="n">
+      <c r="E118" s="1" t="n">
         <v>138124.47818</v>
       </c>
-      <c r="F118" s="0" t="n">
+      <c r="F118" s="1" t="n">
         <v>127183.74765</v>
       </c>
-      <c r="G118" s="0" t="n">
+      <c r="G118" s="1" t="n">
         <v>16312.75</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
+      <c r="A119" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B119" s="0" t="n">
+      <c r="B119" s="1" t="n">
         <v>8833</v>
       </c>
-      <c r="C119" s="0" t="n">
+      <c r="C119" s="1" t="n">
         <v>19.42</v>
       </c>
-      <c r="D119" s="0" t="n">
+      <c r="D119" s="1" t="n">
         <v>0.581</v>
       </c>
-      <c r="E119" s="0" t="n">
+      <c r="E119" s="1" t="n">
         <v>22274.27278</v>
       </c>
-      <c r="F119" s="0" t="n">
+      <c r="F119" s="1" t="n">
         <v>21764.31104</v>
       </c>
-      <c r="G119" s="0" t="n">
+      <c r="G119" s="1" t="n">
         <v>7873.75</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
+      <c r="A120" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B120" s="0" t="n">
+      <c r="B120" s="1" t="n">
         <v>22830</v>
       </c>
-      <c r="C120" s="0" t="n">
+      <c r="C120" s="1" t="n">
         <v>49.81</v>
       </c>
-      <c r="D120" s="0" t="n">
+      <c r="D120" s="1" t="n">
         <v>0.588</v>
       </c>
-      <c r="E120" s="0" t="n">
+      <c r="E120" s="1" t="n">
         <v>50690.40271</v>
       </c>
-      <c r="F120" s="0" t="n">
+      <c r="F120" s="1" t="n">
         <v>43150.09189</v>
       </c>
-      <c r="G120" s="0" t="n">
+      <c r="G120" s="1" t="n">
         <v>7192.97</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
+      <c r="A121" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B121" s="0" t="n">
+      <c r="B121" s="1" t="n">
         <v>14561</v>
       </c>
-      <c r="C121" s="0" t="n">
+      <c r="C121" s="1" t="n">
         <v>73.99</v>
       </c>
-      <c r="D121" s="0" t="n">
+      <c r="D121" s="1" t="n">
         <v>0.607</v>
       </c>
-      <c r="E121" s="0" t="n">
+      <c r="E121" s="1" t="n">
         <v>38188.35135</v>
       </c>
-      <c r="F121" s="0" t="n">
+      <c r="F121" s="1" t="n">
         <v>34550.89887</v>
       </c>
-      <c r="G121" s="0" t="n">
+      <c r="G121" s="1" t="n">
         <v>7391.43</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
+      <c r="A122" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B122" s="0" t="n">
+      <c r="B122" s="1" t="n">
         <v>11056</v>
       </c>
-      <c r="C122" s="0" t="n">
+      <c r="C122" s="1" t="n">
         <v>85.35</v>
       </c>
-      <c r="D122" s="0" t="n">
+      <c r="D122" s="1" t="n">
         <v>0.607</v>
       </c>
-      <c r="E122" s="0" t="n">
+      <c r="E122" s="1" t="n">
         <v>34670.52113</v>
       </c>
-      <c r="F122" s="0" t="n">
+      <c r="F122" s="1" t="n">
         <v>26115.92919</v>
       </c>
-      <c r="G122" s="0" t="n">
+      <c r="G122" s="1" t="n">
         <v>9857.56</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
+      <c r="A123" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B123" s="0" t="n">
+      <c r="B123" s="1" t="n">
         <v>15798</v>
       </c>
-      <c r="C123" s="0" t="n">
+      <c r="C123" s="1" t="n">
         <v>50.13</v>
       </c>
-      <c r="D123" s="0" t="n">
+      <c r="D123" s="1" t="n">
         <v>0.625</v>
       </c>
-      <c r="E123" s="0" t="n">
+      <c r="E123" s="1" t="n">
         <v>46687.0978</v>
       </c>
-      <c r="F123" s="0" t="n">
+      <c r="F123" s="1" t="n">
         <v>38351.07058</v>
       </c>
-      <c r="G123" s="0" t="n">
+      <c r="G123" s="1" t="n">
         <v>9353.48</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
+      <c r="A124" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B124" s="0" t="n">
+      <c r="B124" s="1" t="n">
         <v>32487</v>
       </c>
-      <c r="C124" s="0" t="n">
+      <c r="C124" s="1" t="n">
         <v>41.69</v>
       </c>
-      <c r="D124" s="0" t="n">
+      <c r="D124" s="1" t="n">
         <v>0.614</v>
       </c>
-      <c r="E124" s="0" t="n">
+      <c r="E124" s="1" t="n">
         <v>61813.47715</v>
       </c>
-      <c r="F124" s="0" t="n">
+      <c r="F124" s="1" t="n">
         <v>57297.44701</v>
       </c>
-      <c r="G124" s="0" t="n">
+      <c r="G124" s="1" t="n">
         <v>9254.02</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
+      <c r="A125" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B125" s="0" t="n">
+      <c r="B125" s="1" t="n">
         <v>28737</v>
       </c>
-      <c r="C125" s="0" t="n">
+      <c r="C125" s="1" t="n">
         <v>28.92</v>
       </c>
-      <c r="D125" s="0" t="n">
+      <c r="D125" s="1" t="n">
         <v>0.605</v>
       </c>
-      <c r="E125" s="0" t="n">
+      <c r="E125" s="1" t="n">
         <v>59518.6181</v>
       </c>
-      <c r="F125" s="0" t="n">
+      <c r="F125" s="1" t="n">
         <v>54123.86991</v>
       </c>
-      <c r="G125" s="0" t="n">
+      <c r="G125" s="1" t="n">
         <v>8407.38</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
+      <c r="A126" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B126" s="0" t="n">
+      <c r="B126" s="1" t="n">
         <v>25958</v>
       </c>
-      <c r="C126" s="0" t="n">
+      <c r="C126" s="1" t="n">
         <v>31.36</v>
       </c>
-      <c r="D126" s="0" t="n">
+      <c r="D126" s="1" t="n">
         <v>0.594</v>
       </c>
-      <c r="E126" s="0" t="n">
+      <c r="E126" s="1" t="n">
         <v>60494.65773</v>
       </c>
-      <c r="F126" s="0" t="n">
+      <c r="F126" s="1" t="n">
         <v>53834.80254</v>
       </c>
-      <c r="G126" s="0" t="n">
+      <c r="G126" s="1" t="n">
         <v>7424.97</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
+      <c r="A127" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B127" s="0" t="n">
+      <c r="B127" s="1" t="n">
         <v>21342</v>
       </c>
-      <c r="C127" s="0" t="n">
+      <c r="C127" s="1" t="n">
         <v>37.12</v>
       </c>
-      <c r="D127" s="0" t="n">
+      <c r="D127" s="1" t="n">
         <v>0.636</v>
       </c>
-      <c r="E127" s="0" t="n">
+      <c r="E127" s="1" t="n">
         <v>49148.46668</v>
       </c>
-      <c r="F127" s="0" t="n">
+      <c r="F127" s="1" t="n">
         <v>46212.7834</v>
       </c>
-      <c r="G127" s="0" t="n">
+      <c r="G127" s="1" t="n">
         <v>8634.91</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
+      <c r="A128" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B128" s="0" t="n">
+      <c r="B128" s="1" t="n">
         <v>74145</v>
       </c>
-      <c r="C128" s="0" t="n">
+      <c r="C128" s="1" t="n">
         <v>243</v>
       </c>
-      <c r="D128" s="0" t="n">
+      <c r="D128" s="1" t="n">
         <v>0.659</v>
       </c>
-      <c r="E128" s="0" t="n">
+      <c r="E128" s="1" t="n">
         <v>130640.47392</v>
       </c>
-      <c r="F128" s="0" t="n">
+      <c r="F128" s="1" t="n">
         <v>115063.05222</v>
       </c>
-      <c r="G128" s="0" t="n">
+      <c r="G128" s="1" t="n">
         <v>15884.12</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
+      <c r="A129" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B129" s="0" t="n">
+      <c r="B129" s="1" t="n">
         <v>85647</v>
       </c>
-      <c r="C129" s="0" t="n">
+      <c r="C129" s="1" t="n">
         <v>547.74</v>
       </c>
-      <c r="D129" s="0" t="n">
+      <c r="D129" s="1" t="n">
         <v>0.675</v>
       </c>
-      <c r="E129" s="0" t="n">
+      <c r="E129" s="1" t="n">
         <v>155367.73579</v>
       </c>
-      <c r="F129" s="0" t="n">
+      <c r="F129" s="1" t="n">
         <v>143992.76127</v>
       </c>
-      <c r="G129" s="0" t="n">
+      <c r="G129" s="1" t="n">
         <v>12280.69</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
+      <c r="A130" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B130" s="0" t="n">
+      <c r="B130" s="1" t="n">
         <v>12313</v>
       </c>
-      <c r="C130" s="0" t="n">
+      <c r="C130" s="1" t="n">
         <v>103.61</v>
       </c>
-      <c r="D130" s="0" t="n">
+      <c r="D130" s="1" t="n">
         <v>0.635</v>
       </c>
-      <c r="E130" s="0" t="n">
+      <c r="E130" s="1" t="n">
         <v>33058.44979</v>
       </c>
-      <c r="F130" s="0" t="n">
+      <c r="F130" s="1" t="n">
         <v>30571.83887</v>
       </c>
-      <c r="G130" s="0" t="n">
+      <c r="G130" s="1" t="n">
         <v>10340.74</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
+      <c r="A131" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B131" s="0" t="n">
+      <c r="B131" s="1" t="n">
         <v>6565</v>
       </c>
-      <c r="C131" s="0" t="n">
+      <c r="C131" s="1" t="n">
         <v>78.63</v>
       </c>
-      <c r="D131" s="0" t="n">
+      <c r="D131" s="1" t="n">
         <v>0.621</v>
       </c>
-      <c r="E131" s="0" t="n">
+      <c r="E131" s="1" t="n">
         <v>25845.9189</v>
       </c>
-      <c r="F131" s="0" t="n">
+      <c r="F131" s="1" t="n">
         <v>19807.39588</v>
       </c>
-      <c r="G131" s="0" t="n">
+      <c r="G131" s="1" t="n">
         <v>7812.49</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
+      <c r="A132" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B132" s="0" t="n">
+      <c r="B132" s="1" t="n">
         <v>9458</v>
       </c>
-      <c r="C132" s="0" t="n">
+      <c r="C132" s="1" t="n">
         <v>20.13</v>
       </c>
-      <c r="D132" s="0" t="n">
+      <c r="D132" s="1" t="n">
         <v>0.638</v>
       </c>
-      <c r="E132" s="0" t="n">
+      <c r="E132" s="1" t="n">
         <v>23889.59752</v>
       </c>
-      <c r="F132" s="0" t="n">
+      <c r="F132" s="1" t="n">
         <v>21230.16995</v>
       </c>
-      <c r="G132" s="0" t="n">
+      <c r="G132" s="1" t="n">
         <v>9555.15</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
+      <c r="A133" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B133" s="0" t="n">
+      <c r="B133" s="1" t="n">
         <v>13553</v>
       </c>
-      <c r="C133" s="0" t="n">
+      <c r="C133" s="1" t="n">
         <v>101.9</v>
       </c>
-      <c r="D133" s="0" t="n">
+      <c r="D133" s="1" t="n">
         <v>0.622</v>
       </c>
-      <c r="E133" s="0" t="n">
+      <c r="E133" s="1" t="n">
         <v>22.15967</v>
       </c>
-      <c r="F133" s="0" t="n">
+      <c r="F133" s="1" t="n">
         <v>23779.59408</v>
       </c>
-      <c r="G133" s="0" t="n">
+      <c r="G133" s="1" t="n">
         <v>7049.06</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
+      <c r="A134" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B134" s="0" t="n">
+      <c r="B134" s="1" t="n">
         <v>35526</v>
       </c>
-      <c r="C134" s="0" t="n">
+      <c r="C134" s="1" t="n">
         <v>105.35</v>
       </c>
-      <c r="D134" s="0" t="n">
+      <c r="D134" s="1" t="n">
         <v>0.637</v>
       </c>
-      <c r="E134" s="0" t="n">
+      <c r="E134" s="1" t="n">
         <v>117339.29868</v>
       </c>
-      <c r="F134" s="0" t="n">
+      <c r="F134" s="1" t="n">
         <v>98096.46918</v>
       </c>
-      <c r="G134" s="0" t="n">
+      <c r="G134" s="1" t="n">
         <v>14420.42</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
+      <c r="A135" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B135" s="0" t="n">
+      <c r="B135" s="1" t="n">
         <v>33232</v>
       </c>
-      <c r="C135" s="0" t="n">
+      <c r="C135" s="1" t="n">
         <v>99.83</v>
       </c>
-      <c r="D135" s="0" t="n">
+      <c r="D135" s="1" t="n">
         <v>0.634</v>
       </c>
-      <c r="E135" s="0" t="n">
+      <c r="E135" s="1" t="n">
         <v>8947.8277</v>
       </c>
-      <c r="F135" s="0" t="n">
+      <c r="F135" s="1" t="n">
         <v>65060.16841</v>
       </c>
-      <c r="G135" s="0" t="n">
+      <c r="G135" s="1" t="n">
         <v>13454.87</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
+      <c r="A136" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B136" s="0" t="n">
+      <c r="B136" s="1" t="n">
         <v>31391</v>
       </c>
-      <c r="C136" s="0" t="n">
+      <c r="C136" s="1" t="n">
         <v>13.59</v>
       </c>
-      <c r="D136" s="0" t="n">
+      <c r="D136" s="1" t="n">
         <v>0.57</v>
       </c>
-      <c r="E136" s="0" t="n">
+      <c r="E136" s="1" t="n">
         <v>68411.84104</v>
       </c>
-      <c r="F136" s="0" t="n">
+      <c r="F136" s="1" t="n">
         <v>65099.22984</v>
       </c>
-      <c r="G136" s="0" t="n">
+      <c r="G136" s="1" t="n">
         <v>7617.58</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
+      <c r="A137" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B137" s="0" t="n">
+      <c r="B137" s="1" t="n">
         <v>12276</v>
       </c>
-      <c r="C137" s="0" t="n">
+      <c r="C137" s="1" t="n">
         <v>23.43</v>
       </c>
-      <c r="D137" s="0" t="n">
+      <c r="D137" s="1" t="n">
         <v>0.583</v>
       </c>
-      <c r="E137" s="0" t="n">
+      <c r="E137" s="1" t="n">
         <v>46031.13183</v>
       </c>
-      <c r="F137" s="0" t="n">
+      <c r="F137" s="1" t="n">
         <v>38441.85235</v>
       </c>
-      <c r="G137" s="0" t="n">
+      <c r="G137" s="1" t="n">
         <v>8799.21</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
+      <c r="A138" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B138" s="0" t="n">
+      <c r="B138" s="1" t="n">
         <v>43359</v>
       </c>
-      <c r="C138" s="0" t="n">
+      <c r="C138" s="1" t="n">
         <v>32.14</v>
       </c>
-      <c r="D138" s="0" t="n">
+      <c r="D138" s="1" t="n">
         <v>0.603</v>
       </c>
-      <c r="E138" s="0" t="n">
+      <c r="E138" s="1" t="n">
         <v>82925.93161</v>
       </c>
-      <c r="F138" s="0" t="n">
+      <c r="F138" s="1" t="n">
         <v>81111.07524</v>
       </c>
-      <c r="G138" s="0" t="n">
+      <c r="G138" s="1" t="n">
         <v>7698.6</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
+      <c r="A139" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B139" s="0" t="n">
+      <c r="B139" s="1" t="n">
         <v>9207</v>
       </c>
-      <c r="C139" s="0" t="n">
+      <c r="C139" s="1" t="n">
         <v>57.96</v>
       </c>
-      <c r="D139" s="0" t="n">
+      <c r="D139" s="1" t="n">
         <v>0.646</v>
       </c>
-      <c r="E139" s="0" t="n">
+      <c r="E139" s="1" t="n">
         <v>31652.88666</v>
       </c>
-      <c r="F139" s="0" t="n">
+      <c r="F139" s="1" t="n">
         <v>27208.08937</v>
       </c>
-      <c r="G139" s="0" t="n">
+      <c r="G139" s="1" t="n">
         <v>12428.39</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
+      <c r="A140" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B140" s="0" t="n">
+      <c r="B140" s="1" t="n">
         <v>38045</v>
       </c>
-      <c r="C140" s="0" t="n">
+      <c r="C140" s="1" t="n">
         <v>25.68</v>
       </c>
-      <c r="D140" s="0" t="n">
+      <c r="D140" s="1" t="n">
         <v>0.629</v>
       </c>
-      <c r="E140" s="0" t="n">
+      <c r="E140" s="1" t="n">
         <v>82670.47311</v>
       </c>
-      <c r="F140" s="0" t="n">
+      <c r="F140" s="1" t="n">
         <v>77568.30441</v>
       </c>
-      <c r="G140" s="0" t="n">
+      <c r="G140" s="1" t="n">
         <v>13105.44</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
+      <c r="A141" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B141" s="0" t="n">
+      <c r="B141" s="1" t="n">
         <v>16356</v>
       </c>
-      <c r="C141" s="0" t="n">
+      <c r="C141" s="1" t="n">
         <v>36.35</v>
       </c>
-      <c r="D141" s="0" t="n">
+      <c r="D141" s="1" t="n">
         <v>0.601</v>
       </c>
-      <c r="E141" s="0" t="n">
+      <c r="E141" s="1" t="n">
         <v>39968.77252</v>
       </c>
-      <c r="F141" s="0" t="n">
+      <c r="F141" s="1" t="n">
         <v>33925.60465</v>
       </c>
-      <c r="G141" s="0" t="n">
+      <c r="G141" s="1" t="n">
         <v>22783.47</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
+      <c r="A142" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B142" s="0" t="n">
+      <c r="B142" s="1" t="n">
         <v>20964</v>
       </c>
-      <c r="C142" s="0" t="n">
+      <c r="C142" s="1" t="n">
         <v>256.06</v>
       </c>
-      <c r="D142" s="0" t="n">
+      <c r="D142" s="1" t="n">
         <v>0.636</v>
       </c>
-      <c r="E142" s="0" t="n">
+      <c r="E142" s="1" t="n">
         <v>54134.13734</v>
       </c>
-      <c r="F142" s="0" t="n">
+      <c r="F142" s="1" t="n">
         <v>50810.22872</v>
       </c>
-      <c r="G142" s="0" t="n">
+      <c r="G142" s="1" t="n">
         <v>11968.67</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
+      <c r="A143" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B143" s="0" t="n">
+      <c r="B143" s="1" t="n">
         <v>17210</v>
       </c>
-      <c r="C143" s="0" t="n">
+      <c r="C143" s="1" t="n">
         <v>26.31</v>
       </c>
-      <c r="D143" s="0" t="n">
+      <c r="D143" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="E143" s="0" t="n">
+      <c r="E143" s="1" t="n">
         <v>40085.45432</v>
       </c>
-      <c r="F143" s="0" t="n">
+      <c r="F143" s="1" t="n">
         <v>37094.36253</v>
       </c>
-      <c r="G143" s="0" t="n">
+      <c r="G143" s="1" t="n">
         <v>7973.95</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
+      <c r="A144" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B144" s="0" t="n">
+      <c r="B144" s="1" t="n">
         <v>11052</v>
       </c>
-      <c r="C144" s="0" t="n">
+      <c r="C144" s="1" t="n">
         <v>42.02</v>
       </c>
-      <c r="D144" s="0" t="n">
+      <c r="D144" s="1" t="n">
         <v>0.591</v>
       </c>
-      <c r="E144" s="0" t="n">
+      <c r="E144" s="1" t="n">
         <v>31064.19943</v>
       </c>
-      <c r="F144" s="0" t="n">
+      <c r="F144" s="1" t="n">
         <v>27798.29652</v>
       </c>
-      <c r="G144" s="0" t="n">
+      <c r="G144" s="1" t="n">
         <v>6067.21</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
+      <c r="A145" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B145" s="0" t="n">
+      <c r="B145" s="1" t="n">
         <v>12358</v>
       </c>
-      <c r="C145" s="0" t="n">
+      <c r="C145" s="1" t="n">
         <v>9.17</v>
       </c>
-      <c r="D145" s="0" t="n">
+      <c r="D145" s="1" t="n">
         <v>0.581</v>
       </c>
-      <c r="E145" s="0" t="n">
+      <c r="E145" s="1" t="n">
         <v>32651.06826</v>
       </c>
-      <c r="F145" s="0" t="n">
+      <c r="F145" s="1" t="n">
         <v>32252.54594</v>
       </c>
-      <c r="G145" s="0" t="n">
+      <c r="G145" s="1" t="n">
         <v>7232.71</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
+      <c r="A146" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B146" s="0" t="n">
+      <c r="B146" s="1" t="n">
         <v>14920</v>
       </c>
-      <c r="C146" s="0" t="n">
+      <c r="C146" s="1" t="n">
         <v>69.22</v>
       </c>
-      <c r="D146" s="0" t="n">
+      <c r="D146" s="1" t="n">
         <v>0.622</v>
       </c>
-      <c r="E146" s="0" t="n">
+      <c r="E146" s="1" t="n">
         <v>42013.5771</v>
       </c>
-      <c r="F146" s="0" t="n">
+      <c r="F146" s="1" t="n">
         <v>37198.78845</v>
       </c>
-      <c r="G146" s="0" t="n">
+      <c r="G146" s="1" t="n">
         <v>10373.44</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
+      <c r="A147" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B147" s="0" t="n">
+      <c r="B147" s="1" t="n">
         <v>11165</v>
       </c>
-      <c r="C147" s="0" t="n">
+      <c r="C147" s="1" t="n">
         <v>30.34</v>
       </c>
-      <c r="D147" s="0" t="n">
+      <c r="D147" s="1" t="n">
         <v>0.562</v>
       </c>
-      <c r="E147" s="0" t="n">
+      <c r="E147" s="1" t="n">
         <v>31761.26025</v>
       </c>
-      <c r="F147" s="0" t="n">
+      <c r="F147" s="1" t="n">
         <v>28826.42168</v>
       </c>
-      <c r="G147" s="0" t="n">
+      <c r="G147" s="1" t="n">
         <v>7710.74</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="s">
+      <c r="A148" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B148" s="0" t="n">
+      <c r="B148" s="1" t="n">
         <v>6455</v>
       </c>
-      <c r="C148" s="0" t="n">
+      <c r="C148" s="1" t="n">
         <v>14.93</v>
       </c>
-      <c r="D148" s="0" t="n">
+      <c r="D148" s="1" t="n">
         <v>0.604</v>
       </c>
-      <c r="E148" s="0" t="n">
+      <c r="E148" s="1" t="n">
         <v>23759.34692</v>
       </c>
-      <c r="F148" s="0" t="n">
+      <c r="F148" s="1" t="n">
         <v>23358.35107</v>
       </c>
-      <c r="G148" s="0" t="n">
+      <c r="G148" s="1" t="n">
         <v>10028.18</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
+      <c r="A149" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B149" s="0" t="n">
+      <c r="B149" s="1" t="n">
         <v>21246</v>
       </c>
-      <c r="C149" s="0" t="n">
+      <c r="C149" s="1" t="n">
         <v>19.14</v>
       </c>
-      <c r="D149" s="0" t="n">
+      <c r="D149" s="1" t="n">
         <v>0.594</v>
       </c>
-      <c r="E149" s="0" t="n">
+      <c r="E149" s="1" t="n">
         <v>50000.3633</v>
       </c>
-      <c r="F149" s="0" t="n">
+      <c r="F149" s="1" t="n">
         <v>47607.42957</v>
       </c>
-      <c r="G149" s="0" t="n">
+      <c r="G149" s="1" t="n">
         <v>7713.59</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="s">
+      <c r="A150" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B150" s="0" t="n">
+      <c r="B150" s="1" t="n">
         <v>88899</v>
       </c>
-      <c r="C150" s="0" t="n">
+      <c r="C150" s="1" t="n">
         <v>39.91</v>
       </c>
-      <c r="D150" s="0" t="n">
+      <c r="D150" s="1" t="n">
         <v>0.659</v>
       </c>
-      <c r="E150" s="0" t="n">
+      <c r="E150" s="1" t="n">
         <v>176579.49543</v>
       </c>
-      <c r="F150" s="0" t="n">
+      <c r="F150" s="1" t="n">
         <v>166205.08141</v>
       </c>
-      <c r="G150" s="0" t="n">
+      <c r="G150" s="1" t="n">
         <v>11463.4</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="s">
+      <c r="A151" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B151" s="0" t="n">
+      <c r="B151" s="1" t="n">
         <v>16116</v>
       </c>
-      <c r="C151" s="0" t="n">
+      <c r="C151" s="1" t="n">
         <v>26.81</v>
       </c>
-      <c r="D151" s="0" t="n">
+      <c r="D151" s="1" t="n">
         <v>0.591</v>
       </c>
-      <c r="E151" s="0" t="n">
+      <c r="E151" s="1" t="n">
         <v>1022.69811</v>
       </c>
-      <c r="F151" s="0" t="n">
+      <c r="F151" s="1" t="n">
         <v>37344.88892</v>
       </c>
-      <c r="G151" s="0" t="n">
+      <c r="G151" s="1" t="n">
         <v>8815.22</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="s">
+      <c r="A152" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B152" s="0" t="n">
+      <c r="B152" s="1" t="n">
         <v>82455</v>
       </c>
-      <c r="C152" s="0" t="n">
+      <c r="C152" s="1" t="n">
         <v>21.95</v>
       </c>
-      <c r="D152" s="0" t="n">
+      <c r="D152" s="1" t="n">
         <v>0.642</v>
       </c>
-      <c r="E152" s="0" t="n">
+      <c r="E152" s="1" t="n">
         <v>177264.12065</v>
       </c>
-      <c r="F152" s="0" t="n">
+      <c r="F152" s="1" t="n">
         <v>180081.10224</v>
       </c>
-      <c r="G152" s="0" t="n">
+      <c r="G152" s="1" t="n">
         <v>15148.01</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="s">
+      <c r="A153" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B153" s="0" t="n">
+      <c r="B153" s="1" t="n">
         <v>22432</v>
       </c>
-      <c r="C153" s="0" t="n">
+      <c r="C153" s="1" t="n">
         <v>31.69</v>
       </c>
-      <c r="D153" s="0" t="n">
+      <c r="D153" s="1" t="n">
         <v>0.622</v>
       </c>
-      <c r="E153" s="0" t="n">
+      <c r="E153" s="1" t="n">
         <v>54896.30529</v>
       </c>
-      <c r="F153" s="0" t="n">
+      <c r="F153" s="1" t="n">
         <v>51231.49738</v>
       </c>
-      <c r="G153" s="0" t="n">
+      <c r="G153" s="1" t="n">
         <v>18106.04</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="s">
+      <c r="A154" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B154" s="0" t="n">
+      <c r="B154" s="1" t="n">
         <v>29238</v>
       </c>
-      <c r="C154" s="0" t="n">
+      <c r="C154" s="1" t="n">
         <v>117.24</v>
       </c>
-      <c r="D154" s="0" t="n">
+      <c r="D154" s="1" t="n">
         <v>0.626</v>
       </c>
-      <c r="E154" s="0" t="n">
+      <c r="E154" s="1" t="n">
         <v>71514.3984</v>
       </c>
-      <c r="F154" s="0" t="n">
+      <c r="F154" s="1" t="n">
         <v>60338.75437</v>
       </c>
-      <c r="G154" s="0" t="n">
+      <c r="G154" s="1" t="n">
         <v>11790.12</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="s">
+      <c r="A155" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B155" s="0" t="n">
+      <c r="B155" s="1" t="n">
         <v>18279</v>
       </c>
-      <c r="C155" s="0" t="n">
+      <c r="C155" s="1" t="n">
         <v>50.75</v>
       </c>
-      <c r="D155" s="0" t="n">
+      <c r="D155" s="1" t="n">
         <v>0.601</v>
       </c>
-      <c r="E155" s="0" t="n">
+      <c r="E155" s="1" t="n">
         <v>45570.45518</v>
       </c>
-      <c r="F155" s="0" t="n">
+      <c r="F155" s="1" t="n">
         <v>45448.70518</v>
       </c>
-      <c r="G155" s="0" t="n">
+      <c r="G155" s="1" t="n">
         <v>9534.82</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="s">
+      <c r="A156" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B156" s="0" t="n">
+      <c r="B156" s="1" t="n">
         <v>79550</v>
       </c>
-      <c r="C156" s="0" t="n">
+      <c r="C156" s="1" t="n">
         <v>43.91</v>
       </c>
-      <c r="D156" s="0" t="n">
+      <c r="D156" s="1" t="n">
         <v>0.674</v>
       </c>
-      <c r="E156" s="0" t="n">
+      <c r="E156" s="1" t="n">
         <v>163456.78801</v>
       </c>
-      <c r="F156" s="0" t="n">
+      <c r="F156" s="1" t="n">
         <v>151799.99666</v>
       </c>
-      <c r="G156" s="0" t="n">
+      <c r="G156" s="1" t="n">
         <v>14078.8</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="s">
+      <c r="A157" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B157" s="0" t="n">
+      <c r="B157" s="1" t="n">
         <v>15757</v>
       </c>
-      <c r="C157" s="0" t="n">
+      <c r="C157" s="1" t="n">
         <v>11.39</v>
       </c>
-      <c r="D157" s="0" t="n">
+      <c r="D157" s="1" t="n">
         <v>0.575</v>
       </c>
-      <c r="E157" s="0" t="n">
+      <c r="E157" s="1" t="n">
         <v>38364.08232</v>
       </c>
-      <c r="F157" s="0" t="n">
+      <c r="F157" s="1" t="n">
         <v>33403.24731</v>
       </c>
-      <c r="G157" s="0" t="n">
+      <c r="G157" s="1" t="n">
         <v>8137.32</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="s">
+      <c r="A158" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B158" s="0" t="n">
+      <c r="B158" s="1" t="n">
         <v>16714</v>
       </c>
-      <c r="C158" s="0" t="n">
+      <c r="C158" s="1" t="n">
         <v>19.21</v>
       </c>
-      <c r="D158" s="0" t="n">
+      <c r="D158" s="1" t="n">
         <v>0.54</v>
       </c>
-      <c r="E158" s="0" t="n">
+      <c r="E158" s="1" t="n">
         <v>42585.35118</v>
       </c>
-      <c r="F158" s="0" t="n">
+      <c r="F158" s="1" t="n">
         <v>41896.6991</v>
       </c>
-      <c r="G158" s="0" t="n">
+      <c r="G158" s="1" t="n">
         <v>7684.18</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
+      <c r="A159" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B159" s="0" t="n">
+      <c r="B159" s="1" t="n">
         <v>32851</v>
       </c>
-      <c r="C159" s="0" t="n">
+      <c r="C159" s="1" t="n">
         <v>30.89</v>
       </c>
-      <c r="D159" s="0" t="n">
+      <c r="D159" s="1" t="n">
         <v>0.587</v>
       </c>
-      <c r="E159" s="0" t="n">
+      <c r="E159" s="1" t="n">
         <v>60165.60352</v>
       </c>
-      <c r="F159" s="0" t="n">
+      <c r="F159" s="1" t="n">
         <v>59824.66124</v>
       </c>
-      <c r="G159" s="0" t="n">
+      <c r="G159" s="1" t="n">
         <v>7088.77</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="s">
+      <c r="A160" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B160" s="0" t="n">
+      <c r="B160" s="1" t="n">
         <v>17726</v>
       </c>
-      <c r="C160" s="0" t="n">
+      <c r="C160" s="1" t="n">
         <v>20.07</v>
       </c>
-      <c r="D160" s="0" t="n">
+      <c r="D160" s="1" t="n">
         <v>0.612</v>
       </c>
-      <c r="E160" s="0" t="n">
+      <c r="E160" s="1" t="n">
         <v>57498.64883</v>
       </c>
-      <c r="F160" s="0" t="n">
+      <c r="F160" s="1" t="n">
         <v>50533.47256</v>
       </c>
-      <c r="G160" s="0" t="n">
+      <c r="G160" s="1" t="n">
         <v>7588.62</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0" t="s">
+      <c r="A161" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B161" s="0" t="n">
+      <c r="B161" s="1" t="n">
         <v>43719</v>
       </c>
-      <c r="C161" s="0" t="n">
+      <c r="C161" s="1" t="n">
         <v>10.04</v>
       </c>
-      <c r="D161" s="0" t="n">
+      <c r="D161" s="1" t="n">
         <v>0.616</v>
       </c>
-      <c r="E161" s="0" t="n">
+      <c r="E161" s="1" t="n">
         <v>87598.63375</v>
       </c>
-      <c r="F161" s="0" t="n">
+      <c r="F161" s="1" t="n">
         <v>80916.4089</v>
       </c>
-      <c r="G161" s="0" t="n">
+      <c r="G161" s="1" t="n">
         <v>11499.93</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="s">
+      <c r="A162" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B162" s="0" t="n">
+      <c r="B162" s="1" t="n">
         <v>48354</v>
       </c>
-      <c r="C162" s="0" t="n">
+      <c r="C162" s="1" t="n">
         <v>130.61</v>
       </c>
-      <c r="D162" s="0" t="n">
+      <c r="D162" s="1" t="n">
         <v>0.611</v>
       </c>
-      <c r="E162" s="0" t="n">
+      <c r="E162" s="1" t="n">
         <v>107397.28599</v>
       </c>
-      <c r="F162" s="0" t="n">
+      <c r="F162" s="1" t="n">
         <v>92516.11779</v>
       </c>
-      <c r="G162" s="0" t="n">
+      <c r="G162" s="1" t="n">
         <v>11350.31</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0" t="s">
+      <c r="A163" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B163" s="0" t="n">
+      <c r="B163" s="1" t="n">
         <v>49306</v>
       </c>
-      <c r="C163" s="0" t="n">
+      <c r="C163" s="1" t="n">
         <v>52.6</v>
       </c>
-      <c r="D163" s="0" t="n">
+      <c r="D163" s="1" t="n">
         <v>0.665</v>
       </c>
-      <c r="E163" s="0" t="n">
+      <c r="E163" s="1" t="n">
         <v>252306.83358</v>
       </c>
-      <c r="F163" s="0" t="n">
+      <c r="F163" s="1" t="n">
         <v>219614.33442</v>
       </c>
-      <c r="G163" s="0" t="n">
+      <c r="G163" s="1" t="n">
         <v>77639.32</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0" t="s">
+      <c r="A164" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B164" s="0" t="n">
+      <c r="B164" s="1" t="n">
         <v>7557</v>
       </c>
-      <c r="C164" s="0" t="n">
+      <c r="C164" s="1" t="n">
         <v>28.17</v>
       </c>
-      <c r="D164" s="0" t="n">
+      <c r="D164" s="1" t="n">
         <v>0.654</v>
       </c>
-      <c r="E164" s="0" t="n">
+      <c r="E164" s="1" t="n">
         <v>21311.30681</v>
       </c>
-      <c r="F164" s="0" t="n">
+      <c r="F164" s="1" t="n">
         <v>18661.53561</v>
       </c>
-      <c r="G164" s="0" t="n">
+      <c r="G164" s="1" t="n">
         <v>12389.96</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0" t="s">
+      <c r="A165" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B165" s="0" t="n">
+      <c r="B165" s="1" t="n">
         <v>13086</v>
       </c>
-      <c r="C165" s="0" t="n">
+      <c r="C165" s="1" t="n">
         <v>100.74</v>
       </c>
-      <c r="D165" s="0" t="n">
+      <c r="D165" s="1" t="n">
         <v>0.62</v>
       </c>
-      <c r="E165" s="0" t="n">
+      <c r="E165" s="1" t="n">
         <v>29335.08881</v>
       </c>
-      <c r="F165" s="0" t="n">
+      <c r="F165" s="1" t="n">
         <v>24687.03039</v>
       </c>
-      <c r="G165" s="0" t="n">
+      <c r="G165" s="1" t="n">
         <v>8475.74</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0" t="s">
+      <c r="A166" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B166" s="0" t="n">
+      <c r="B166" s="1" t="n">
         <v>25418</v>
       </c>
-      <c r="C166" s="0" t="n">
+      <c r="C166" s="1" t="n">
         <v>26.41</v>
       </c>
-      <c r="D166" s="0" t="n">
+      <c r="D166" s="1" t="n">
         <v>0.619</v>
       </c>
-      <c r="E166" s="0" t="n">
+      <c r="E166" s="1" t="n">
         <v>58035.9837</v>
       </c>
-      <c r="F166" s="0" t="n">
+      <c r="F166" s="1" t="n">
         <v>52551.18314</v>
       </c>
-      <c r="G166" s="0" t="n">
+      <c r="G166" s="1" t="n">
         <v>12362.48</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0" t="s">
+      <c r="A167" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B167" s="0" t="n">
+      <c r="B167" s="1" t="n">
         <v>7758</v>
       </c>
-      <c r="C167" s="0" t="n">
+      <c r="C167" s="1" t="n">
         <v>16.16</v>
       </c>
-      <c r="D167" s="0" t="n">
+      <c r="D167" s="1" t="n">
         <v>0.603</v>
       </c>
-      <c r="E167" s="0" t="n">
+      <c r="E167" s="1" t="n">
         <v>16444.7424</v>
       </c>
-      <c r="F167" s="0" t="n">
+      <c r="F167" s="1" t="n">
         <v>21791.74248</v>
       </c>
-      <c r="G167" s="0" t="n">
+      <c r="G167" s="1" t="n">
         <v>6841.58</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0" t="s">
+      <c r="A168" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B168" s="0" t="n">
+      <c r="B168" s="1" t="n">
         <v>212437</v>
       </c>
-      <c r="C168" s="0" t="n">
+      <c r="C168" s="1" t="n">
         <v>88.67</v>
       </c>
-      <c r="D168" s="0" t="n">
+      <c r="D168" s="1" t="n">
         <v>0.714</v>
       </c>
-      <c r="E168" s="0" t="n">
+      <c r="E168" s="1" t="n">
         <v>620503.26479</v>
       </c>
-      <c r="F168" s="0" t="n">
+      <c r="F168" s="1" t="n">
         <v>574656.93699</v>
       </c>
-      <c r="G168" s="0" t="n">
+      <c r="G168" s="1" t="n">
         <v>21919.49</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0" t="s">
+      <c r="A169" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B169" s="0" t="n">
+      <c r="B169" s="1" t="n">
         <v>18389</v>
       </c>
-      <c r="C169" s="0" t="n">
+      <c r="C169" s="1" t="n">
         <v>11.5</v>
       </c>
-      <c r="D169" s="0" t="n">
+      <c r="D169" s="1" t="n">
         <v>0.625</v>
       </c>
-      <c r="E169" s="0" t="n">
+      <c r="E169" s="1" t="n">
         <v>54727.68971</v>
       </c>
-      <c r="F169" s="0" t="n">
+      <c r="F169" s="1" t="n">
         <v>49746.31073</v>
       </c>
-      <c r="G169" s="0" t="n">
+      <c r="G169" s="1" t="n">
         <v>11953.56</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="s">
+      <c r="A170" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B170" s="0" t="n">
+      <c r="B170" s="1" t="n">
         <v>32079</v>
       </c>
-      <c r="C170" s="0" t="n">
+      <c r="C170" s="1" t="n">
         <v>33.89</v>
       </c>
-      <c r="D170" s="0" t="n">
+      <c r="D170" s="1" t="n">
         <v>0.645</v>
       </c>
-      <c r="E170" s="0" t="n">
+      <c r="E170" s="1" t="n">
         <v>60758.96795</v>
       </c>
-      <c r="F170" s="0" t="n">
+      <c r="F170" s="1" t="n">
         <v>53068.85358</v>
       </c>
-      <c r="G170" s="0" t="n">
+      <c r="G170" s="1" t="n">
         <v>11997.07</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="s">
+      <c r="A171" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B171" s="0" t="n">
+      <c r="B171" s="1" t="n">
         <v>26199</v>
       </c>
-      <c r="C171" s="0" t="n">
+      <c r="C171" s="1" t="n">
         <v>12.98</v>
       </c>
-      <c r="D171" s="0" t="n">
+      <c r="D171" s="1" t="n">
         <v>0.58</v>
       </c>
-      <c r="E171" s="0" t="n">
+      <c r="E171" s="1" t="n">
         <v>73205.88552</v>
       </c>
-      <c r="F171" s="0" t="n">
+      <c r="F171" s="1" t="n">
         <v>68105.22591</v>
       </c>
-      <c r="G171" s="0" t="n">
+      <c r="G171" s="1" t="n">
         <v>9139.65</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="s">
+      <c r="A172" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B172" s="0" t="n">
+      <c r="B172" s="1" t="n">
         <v>8555</v>
       </c>
-      <c r="C172" s="0" t="n">
+      <c r="C172" s="1" t="n">
         <v>19.61</v>
       </c>
-      <c r="D172" s="0" t="n">
+      <c r="D172" s="1" t="n">
         <v>0.576</v>
       </c>
-      <c r="E172" s="0" t="n">
+      <c r="E172" s="1" t="n">
         <v>22118.1679</v>
       </c>
-      <c r="F172" s="0" t="n">
+      <c r="F172" s="1" t="n">
         <v>22655.93516</v>
       </c>
-      <c r="G172" s="0" t="n">
+      <c r="G172" s="1" t="n">
         <v>8006.78</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0" t="s">
+      <c r="A173" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B173" s="0" t="n">
+      <c r="B173" s="1" t="n">
         <v>59259</v>
       </c>
-      <c r="C173" s="0" t="n">
+      <c r="C173" s="1" t="n">
         <v>13.87</v>
       </c>
-      <c r="D173" s="0" t="n">
+      <c r="D173" s="1" t="n">
         <v>0.633</v>
       </c>
-      <c r="E173" s="0" t="n">
+      <c r="E173" s="1" t="n">
         <v>136028.13652</v>
       </c>
-      <c r="F173" s="0" t="n">
+      <c r="F173" s="1" t="n">
         <v>135713.29548</v>
       </c>
-      <c r="G173" s="0" t="n">
+      <c r="G173" s="1" t="n">
         <v>11245.42</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="s">
+      <c r="A174" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B174" s="0" t="n">
+      <c r="B174" s="1" t="n">
         <v>19551</v>
       </c>
-      <c r="C174" s="0" t="n">
+      <c r="C174" s="1" t="n">
         <v>22.42</v>
       </c>
-      <c r="D174" s="0" t="n">
+      <c r="D174" s="1" t="n">
         <v>0.584</v>
       </c>
-      <c r="E174" s="0" t="n">
+      <c r="E174" s="1" t="n">
         <v>51853.41777</v>
       </c>
-      <c r="F174" s="0" t="n">
+      <c r="F174" s="1" t="n">
         <v>43425.04017</v>
       </c>
-      <c r="G174" s="0" t="n">
+      <c r="G174" s="1" t="n">
         <v>6916.28</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0" t="s">
+      <c r="A175" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B175" s="0" t="n">
+      <c r="B175" s="1" t="n">
         <v>77111</v>
       </c>
-      <c r="C175" s="0" t="n">
+      <c r="C175" s="1" t="n">
         <v>75.8</v>
       </c>
-      <c r="D175" s="0" t="n">
+      <c r="D175" s="1" t="n">
         <v>0.657</v>
       </c>
-      <c r="E175" s="0" t="n">
+      <c r="E175" s="1" t="n">
         <v>152865.84876</v>
       </c>
-      <c r="F175" s="0" t="n">
+      <c r="F175" s="1" t="n">
         <v>148371.08625</v>
       </c>
-      <c r="G175" s="0" t="n">
+      <c r="G175" s="1" t="n">
         <v>19276.27</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0" t="s">
+      <c r="A176" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B176" s="0" t="n">
+      <c r="B176" s="1" t="n">
         <v>56653</v>
       </c>
-      <c r="C176" s="0" t="n">
+      <c r="C176" s="1" t="n">
         <v>55.55</v>
       </c>
-      <c r="D176" s="0" t="n">
+      <c r="D176" s="1" t="n">
         <v>0.606</v>
       </c>
-      <c r="E176" s="0" t="n">
+      <c r="E176" s="1" t="n">
         <v>109451.09277</v>
       </c>
-      <c r="F176" s="0" t="n">
+      <c r="F176" s="1" t="n">
         <v>107186.91603</v>
       </c>
-      <c r="G176" s="0" t="n">
+      <c r="G176" s="1" t="n">
         <v>14036.17</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0" t="s">
+      <c r="A177" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B177" s="0" t="n">
+      <c r="B177" s="1" t="n">
         <v>16588</v>
       </c>
-      <c r="C177" s="0" t="n">
+      <c r="C177" s="1" t="n">
         <v>71.23</v>
       </c>
-      <c r="D177" s="0" t="n">
+      <c r="D177" s="1" t="n">
         <v>0.606</v>
       </c>
-      <c r="E177" s="0" t="n">
+      <c r="E177" s="1" t="n">
         <v>38075.48124</v>
       </c>
-      <c r="F177" s="0" t="n">
+      <c r="F177" s="1" t="n">
         <v>31969.73697</v>
       </c>
-      <c r="G177" s="0" t="n">
+      <c r="G177" s="1" t="n">
         <v>7128.48</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0" t="s">
+      <c r="A178" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B178" s="0" t="n">
+      <c r="B178" s="1" t="n">
         <v>35295</v>
       </c>
-      <c r="C178" s="0" t="n">
+      <c r="C178" s="1" t="n">
         <v>75.5</v>
       </c>
-      <c r="D178" s="0" t="n">
+      <c r="D178" s="1" t="n">
         <v>0.648</v>
       </c>
-      <c r="E178" s="0" t="n">
+      <c r="E178" s="1" t="n">
         <v>84777.89878</v>
       </c>
-      <c r="F178" s="0" t="n">
+      <c r="F178" s="1" t="n">
         <v>63907.03794</v>
       </c>
-      <c r="G178" s="0" t="n">
+      <c r="G178" s="1" t="n">
         <v>16695.06</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0" t="s">
+      <c r="A179" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B179" s="0" t="n">
+      <c r="B179" s="1" t="n">
         <v>7740</v>
       </c>
-      <c r="C179" s="0" t="n">
+      <c r="C179" s="1" t="n">
         <v>28.59</v>
       </c>
-      <c r="D179" s="0" t="n">
+      <c r="D179" s="1" t="n">
         <v>0.591</v>
       </c>
-      <c r="E179" s="0" t="n">
+      <c r="E179" s="1" t="n">
         <v>203.81705</v>
       </c>
-      <c r="F179" s="0" t="n">
+      <c r="F179" s="1" t="n">
         <v>18511.25613</v>
       </c>
-      <c r="G179" s="0" t="n">
+      <c r="G179" s="1" t="n">
         <v>7336.3</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0" t="s">
+      <c r="A180" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B180" s="0" t="n">
+      <c r="B180" s="1" t="n">
         <v>19976</v>
       </c>
-      <c r="C180" s="0" t="n">
+      <c r="C180" s="1" t="n">
         <v>59.35</v>
       </c>
-      <c r="D180" s="0" t="n">
+      <c r="D180" s="1" t="n">
         <v>0.587</v>
       </c>
-      <c r="E180" s="0" t="n">
+      <c r="E180" s="1" t="n">
         <v>62155.59944</v>
       </c>
-      <c r="F180" s="0" t="n">
+      <c r="F180" s="1" t="n">
         <v>45115.41853</v>
       </c>
-      <c r="G180" s="0" t="n">
+      <c r="G180" s="1" t="n">
         <v>7977.17</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0" t="s">
+      <c r="A181" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B181" s="0" t="n">
+      <c r="B181" s="1" t="n">
         <v>22223</v>
       </c>
-      <c r="C181" s="0" t="n">
+      <c r="C181" s="1" t="n">
         <v>203.61</v>
       </c>
-      <c r="D181" s="0" t="n">
+      <c r="D181" s="1" t="n">
         <v>0.639</v>
       </c>
-      <c r="E181" s="0" t="n">
+      <c r="E181" s="1" t="n">
         <v>46252.58477</v>
       </c>
-      <c r="F181" s="0" t="n">
+      <c r="F181" s="1" t="n">
         <v>42868.59476</v>
       </c>
-      <c r="G181" s="0" t="n">
+      <c r="G181" s="1" t="n">
         <v>13527.84</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0" t="s">
+      <c r="A182" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B182" s="0" t="n">
+      <c r="B182" s="1" t="n">
         <v>13988</v>
       </c>
-      <c r="C182" s="0" t="n">
+      <c r="C182" s="1" t="n">
         <v>18.49</v>
       </c>
-      <c r="D182" s="0" t="n">
+      <c r="D182" s="1" t="n">
         <v>0.566</v>
       </c>
-      <c r="E182" s="0" t="n">
+      <c r="E182" s="1" t="n">
         <v>36175.66262</v>
       </c>
-      <c r="F182" s="0" t="n">
+      <c r="F182" s="1" t="n">
         <v>34549.30811</v>
       </c>
-      <c r="G182" s="0" t="n">
+      <c r="G182" s="1" t="n">
         <v>12809.79</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0" t="s">
+      <c r="A183" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B183" s="0" t="n">
+      <c r="B183" s="1" t="n">
         <v>18520</v>
       </c>
-      <c r="C183" s="0" t="n">
+      <c r="C183" s="1" t="n">
         <v>98.07</v>
       </c>
-      <c r="D183" s="0" t="n">
+      <c r="D183" s="1" t="n">
         <v>0.611</v>
       </c>
-      <c r="E183" s="0" t="n">
+      <c r="E183" s="1" t="n">
         <v>51275.61286</v>
       </c>
-      <c r="F183" s="0" t="n">
+      <c r="F183" s="1" t="n">
         <v>47814.72672</v>
       </c>
-      <c r="G183" s="0" t="n">
+      <c r="G183" s="1" t="n">
         <v>18238.38</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="0" t="s">
+      <c r="A184" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B184" s="0" t="n">
+      <c r="B184" s="1" t="n">
         <v>41078</v>
       </c>
-      <c r="C184" s="0" t="n">
+      <c r="C184" s="1" t="n">
         <v>45.99</v>
       </c>
-      <c r="D184" s="0" t="n">
+      <c r="D184" s="1" t="n">
         <v>0.629</v>
       </c>
-      <c r="E184" s="0" t="n">
+      <c r="E184" s="1" t="n">
         <v>79368.15813</v>
       </c>
-      <c r="F184" s="0" t="n">
+      <c r="F184" s="1" t="n">
         <v>71300.30285</v>
       </c>
-      <c r="G184" s="0" t="n">
+      <c r="G184" s="1" t="n">
         <v>9768.71</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0" t="s">
+      <c r="A185" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B185" s="0" t="n">
+      <c r="B185" s="1" t="n">
         <v>61916</v>
       </c>
-      <c r="C185" s="0" t="n">
+      <c r="C185" s="1" t="n">
         <v>41.9</v>
       </c>
-      <c r="D185" s="0" t="n">
+      <c r="D185" s="1" t="n">
         <v>0.571</v>
       </c>
-      <c r="E185" s="0" t="n">
+      <c r="E185" s="1" t="n">
         <v>126024.78879</v>
       </c>
-      <c r="F185" s="0" t="n">
+      <c r="F185" s="1" t="n">
         <v>104188.07011</v>
       </c>
-      <c r="G185" s="0" t="n">
+      <c r="G185" s="1" t="n">
         <v>7921.75</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="0" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="0" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="0" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="0" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="0" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="0" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="0" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="0" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="0" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="0" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="0" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="0" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="s">
-        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/Socio_CE.xlsx
+++ b/Socio_CE.xlsx
@@ -25,7 +25,7 @@
     <t xml:space="preserve">municipio</t>
   </si>
   <si>
-    <t xml:space="preserve">população_2021</t>
+    <t xml:space="preserve">populacao_2021</t>
   </si>
   <si>
     <t xml:space="preserve">densidemo_2010</t>
@@ -673,7 +673,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -697,7 +697,7 @@
   <dimension ref="A1:G185"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
